--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\出合翔太\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D947144-1544-4D97-879A-C8079CAA451E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B648E857-0FD3-40DD-A1BB-1E13E545469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -333,13 +333,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マップの作成</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>LODシステムの実装</t>
     <rPh sb="8" eb="10">
       <t>ジッソウ</t>
@@ -350,6 +343,40 @@
     <t>テクスチャの修正</t>
     <rPh sb="6" eb="8">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リロード関係のリファクタリング</t>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵AIの調整</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップに使うモデルの作成</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデルのは位置</t>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -493,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,10 +566,13 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -555,6 +585,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,11 +955,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA197"/>
+  <dimension ref="A1:DA200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="topRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -939,28 +975,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1349,14 +1385,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="20"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="21"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -1743,14 +1779,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="20"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -2402,7 +2438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="8" t="s">
         <v>28</v>
       </c>
@@ -2422,7 +2458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
@@ -2442,7 +2478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
@@ -2455,92 +2491,138 @@
       <c r="F19" s="14">
         <v>44523</v>
       </c>
+      <c r="G19" s="14">
+        <v>44524</v>
+      </c>
       <c r="H19" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="14">
+        <v>44524</v>
+      </c>
+      <c r="E20" s="14">
+        <v>44525</v>
+      </c>
+      <c r="F20" s="14">
+        <v>44524</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14">
+        <v>44526</v>
+      </c>
+      <c r="E21" s="14">
+        <v>44528</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="14">
-        <v>44532</v>
-      </c>
-      <c r="E20" s="14">
-        <v>44533</v>
-      </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="8" t="s">
+      <c r="D22" s="14">
+        <v>44529</v>
+      </c>
+      <c r="E22" s="14">
+        <v>44530</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="14">
+        <v>44531</v>
+      </c>
+      <c r="E23" s="14">
+        <v>44535</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14">
+        <v>44536</v>
+      </c>
+      <c r="E24" s="14">
+        <v>44538</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="14">
-        <v>44534</v>
-      </c>
-      <c r="E21" s="14">
-        <v>44538</v>
-      </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="8" t="s">
+      <c r="D25" s="14">
+        <v>44539</v>
+      </c>
+      <c r="E25" s="14">
+        <v>44540</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="14">
+        <v>44541</v>
+      </c>
+      <c r="E26" s="14">
+        <v>44542</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="14">
-        <v>44539</v>
-      </c>
-      <c r="E22" s="14">
-        <v>44540</v>
-      </c>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="14">
-        <v>44541</v>
-      </c>
-      <c r="E23" s="14">
-        <v>44542</v>
-      </c>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="D27" s="14">
         <v>44543</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E27" s="14">
         <v>44545</v>
       </c>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3037,6 +3119,15 @@
     </row>
     <row r="197" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H197" s="12"/>
+    </row>
+    <row r="198" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H198" s="12"/>
+    </row>
+    <row r="199" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H199" s="12"/>
+    </row>
+    <row r="200" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H200" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -3055,18 +3146,18 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J102:DA197">
+  <conditionalFormatting sqref="J105:DA200">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND(J$2&gt;=$F102,J$2&lt;=$G102)</formula>
+      <formula>AND(J$2&gt;=$F105,J$2&lt;=$G105)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="7">
-      <formula>AND(J$2&gt;=$D102,J$2&lt;=$E102)</formula>
+      <formula>AND(J$2&gt;=$D105,J$2&lt;=$E105)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="8">
       <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:DA101">
+  <conditionalFormatting sqref="J4:DA104">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -3086,19 +3177,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A197</xm:sqref>
+          <xm:sqref>A4:A200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H197</xm:sqref>
+          <xm:sqref>H4:H200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C197</xm:sqref>
+          <xm:sqref>C4:C200</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B648E857-0FD3-40DD-A1BB-1E13E545469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42278D04-D7FA-44B5-A4BE-7D99C985CF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -959,7 +959,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N21" sqref="N21"/>
+      <selection pane="topRight" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2513,9 +2513,11 @@
       <c r="F20" s="14">
         <v>44524</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="14">
+        <v>44524</v>
+      </c>
       <c r="H20" s="17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -2530,9 +2532,13 @@
       <c r="E21" s="14">
         <v>44528</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="14">
+        <v>44524</v>
+      </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="17" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="8" t="s">

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42278D04-D7FA-44B5-A4BE-7D99C985CF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F606B1-4555-452E-8FB0-10AC2B903208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -377,6 +377,20 @@
     <t>モデルのは位置</t>
     <rPh sb="5" eb="7">
       <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミニマップのプロトタイプ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキルを使ったら、ゲージを減らしていく</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヘ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -520,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,6 +589,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,28 +620,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -955,18 +957,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA200"/>
+  <dimension ref="A1:DA202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.625" style="9" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="53.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="2.25" style="8" hidden="1" customWidth="1"/>
     <col min="4" max="7" width="10.625" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.625" style="10" customWidth="1"/>
     <col min="9" max="9" width="2.625" style="7" customWidth="1"/>
@@ -975,28 +978,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1385,14 +1388,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="23"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="24"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -1779,14 +1782,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="23"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="21"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -2521,105 +2524,134 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="14">
+        <v>44525</v>
+      </c>
+      <c r="E21" s="14">
+        <v>44525</v>
+      </c>
+      <c r="F21" s="14">
+        <v>44525</v>
+      </c>
+      <c r="G21" s="14">
+        <v>44525</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="14">
+      <c r="C22" s="16"/>
+      <c r="D22" s="14">
         <v>44526</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="14">
         <v>44528</v>
       </c>
-      <c r="F21" s="14">
-        <v>44524</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="14">
-        <v>44529</v>
-      </c>
-      <c r="E22" s="14">
-        <v>44530</v>
-      </c>
-      <c r="H22" s="12"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="14">
+        <v>44529</v>
+      </c>
+      <c r="E23" s="14">
+        <v>44530</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="14">
+        <v>44531</v>
+      </c>
+      <c r="E24" s="14">
+        <v>44533</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="20"/>
+      <c r="B25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D25" s="14">
         <v>44531</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E25" s="14">
         <v>44535</v>
       </c>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14">
+      <c r="C26" s="16"/>
+      <c r="D26" s="14">
         <v>44536</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E26" s="14">
         <v>44538</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="14">
-        <v>44539</v>
-      </c>
-      <c r="E25" s="14">
-        <v>44540</v>
-      </c>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="14">
-        <v>44541</v>
-      </c>
-      <c r="E26" s="14">
-        <v>44542</v>
-      </c>
-      <c r="H26" s="12"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="14">
+        <v>44539</v>
+      </c>
+      <c r="E27" s="14">
+        <v>44540</v>
+      </c>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="14">
+        <v>44541</v>
+      </c>
+      <c r="E28" s="14">
+        <v>44542</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D29" s="14">
         <v>44543</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E29" s="14">
         <v>44545</v>
       </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3134,6 +3166,12 @@
     </row>
     <row r="200" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H200" s="12"/>
+    </row>
+    <row r="201" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H201" s="12"/>
+    </row>
+    <row r="202" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H202" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -3152,25 +3190,14 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J105:DA200">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND(J$2&gt;=$F105,J$2&lt;=$G105)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>AND(J$2&gt;=$D105,J$2&lt;=$E105)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:DA104">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="J4:DA202">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>AND(J$2&gt;=$D4,J$2&lt;=$E4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3183,19 +3210,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A200</xm:sqref>
+          <xm:sqref>A4:A202</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H200</xm:sqref>
+          <xm:sqref>H4:H202</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C200</xm:sqref>
+          <xm:sqref>C4:C202</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F606B1-4555-452E-8FB0-10AC2B903208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4124DD-6A5A-47AA-AB59-6D2751D81633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -374,13 +374,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モデルのは位置</t>
-    <rPh sb="5" eb="7">
-      <t>イチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ミニマップのプロトタイプ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -391,6 +384,23 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデルの配置</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾薬補給システム</t>
+    <rPh sb="0" eb="2">
+      <t>ダンヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホキュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -962,7 +972,7 @@
     <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
       <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="H21" sqref="H21"/>
+      <selection pane="topRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2526,7 +2536,7 @@
     <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="14">
@@ -2557,9 +2567,13 @@
       <c r="E22" s="14">
         <v>44528</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="14">
+        <v>44525</v>
+      </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="17" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8" t="s">
@@ -2576,7 +2590,7 @@
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="20"/>
       <c r="B24" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="14">
@@ -2591,54 +2605,58 @@
     </row>
     <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20"/>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="14">
+        <v>44533</v>
+      </c>
+      <c r="E25" s="14">
+        <v>44537</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="20"/>
+      <c r="B26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="14">
-        <v>44531</v>
-      </c>
-      <c r="E25" s="14">
-        <v>44535</v>
-      </c>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="16"/>
       <c r="D26" s="14">
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="E26" s="14">
-        <v>44538</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
+        <v>44542</v>
+      </c>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="16"/>
       <c r="D27" s="14">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="E27" s="14">
-        <v>44540</v>
-      </c>
-      <c r="H27" s="12"/>
+        <v>44546</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D28" s="14">
-        <v>44541</v>
+        <v>44547</v>
       </c>
       <c r="E28" s="14">
-        <v>44542</v>
+        <v>44552</v>
       </c>
       <c r="H28" s="12"/>
     </row>
@@ -2647,10 +2665,10 @@
         <v>33</v>
       </c>
       <c r="D29" s="14">
-        <v>44543</v>
+        <v>44553</v>
       </c>
       <c r="E29" s="14">
-        <v>44545</v>
+        <v>44555</v>
       </c>
       <c r="H29" s="12"/>
     </row>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4124DD-6A5A-47AA-AB59-6D2751D81633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C106F7-F03B-4D71-ABA5-FE2B180687F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -401,6 +401,30 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ホキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予測射撃</t>
+    <rPh sb="0" eb="4">
+      <t>ヨソクシャゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業バッファ-&gt;トゥーンシェーダー</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業バッファ→スキルを使ったら、トゥーンアニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -544,7 +568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,6 +621,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -967,12 +1000,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA202"/>
+  <dimension ref="A1:DA203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="AG1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="B22" sqref="B22"/>
+      <selection pane="topRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -988,28 +1021,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1398,14 +1431,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="26"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -1792,14 +1825,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="26"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -2570,14 +2603,16 @@
       <c r="F22" s="14">
         <v>44525</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="14">
+        <v>44526</v>
+      </c>
       <c r="H22" s="17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D23" s="14">
         <v>44529</v>
@@ -2585,35 +2620,43 @@
       <c r="E23" s="14">
         <v>44530</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="F23" s="14">
+        <v>44527</v>
+      </c>
+      <c r="G23" s="14">
+        <v>44527</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="18"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="21"/>
       <c r="D24" s="14">
-        <v>44531</v>
+        <v>44527</v>
       </c>
       <c r="E24" s="14">
-        <v>44533</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+        <v>44528</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20"/>
       <c r="B25" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="14">
+        <v>44531</v>
+      </c>
+      <c r="E25" s="14">
         <v>44533</v>
-      </c>
-      <c r="E25" s="14">
-        <v>44537</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -2621,61 +2664,77 @@
     </row>
     <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20"/>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="14">
+        <v>44533</v>
+      </c>
+      <c r="E26" s="14">
+        <v>44537</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="20"/>
+      <c r="B27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <v>44538</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E27" s="14">
         <v>44542</v>
       </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16" t="s">
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="14">
+      <c r="C28" s="16"/>
+      <c r="D28" s="14">
         <v>44543</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E28" s="14">
         <v>44546</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="14">
-        <v>44547</v>
-      </c>
-      <c r="E28" s="14">
-        <v>44552</v>
-      </c>
-      <c r="H28" s="12"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="14">
+        <v>44547</v>
+      </c>
+      <c r="E29" s="14">
+        <v>44552</v>
+      </c>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <v>44553</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E30" s="14">
         <v>44555</v>
       </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3190,6 +3249,9 @@
     </row>
     <row r="202" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H202" s="12"/>
+    </row>
+    <row r="203" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H203" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -3208,7 +3270,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA202">
+  <conditionalFormatting sqref="J4:DA203">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -3228,19 +3290,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A202</xm:sqref>
+          <xm:sqref>A4:A203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H202</xm:sqref>
+          <xm:sqref>H4:H203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C202</xm:sqref>
+          <xm:sqref>C4:C203</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C106F7-F03B-4D71-ABA5-FE2B180687F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D04A30-1742-4BCB-9849-45B235FCF42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -1002,10 +1002,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
   <dimension ref="A1:DA203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="B24" sqref="B24"/>
+      <selection pane="topRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2642,9 +2642,15 @@
       <c r="E24" s="14">
         <v>44528</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="22"/>
+      <c r="F24" s="14">
+        <v>44527</v>
+      </c>
+      <c r="G24" s="14">
+        <v>44527</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20"/>
@@ -2658,9 +2664,13 @@
       <c r="E25" s="14">
         <v>44533</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="14">
+        <v>44528</v>
+      </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20"/>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D04A30-1742-4BCB-9849-45B235FCF42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B83F869-EF32-4362-A03F-BA7FD6C6DEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -425,6 +425,32 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クイックリロードの演出をシェーダーでよくする、彩度や色相を変更など</t>
+    <rPh sb="9" eb="11">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シキソウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミニマップ用のアイコンの作成</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -568,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,6 +667,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,6 +708,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,18 +1056,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA203"/>
+  <dimension ref="A1:DA205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="N25" sqref="N25"/>
+      <selection pane="topRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.625" style="9" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="53.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="53.125" style="27" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="8" hidden="1" customWidth="1"/>
     <col min="4" max="7" width="10.625" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.625" style="10" customWidth="1"/>
@@ -1021,28 +1077,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1431,14 +1487,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="29"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -1825,14 +1881,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="29"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -2223,7 +2279,7 @@
       </c>
     </row>
     <row r="4" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="14">
@@ -2243,7 +2299,7 @@
       </c>
     </row>
     <row r="5" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="14">
@@ -2263,7 +2319,7 @@
       </c>
     </row>
     <row r="6" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="14">
@@ -2283,7 +2339,7 @@
       </c>
     </row>
     <row r="7" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="14">
@@ -2303,7 +2359,7 @@
       </c>
     </row>
     <row r="8" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="14">
@@ -2323,7 +2379,7 @@
       </c>
     </row>
     <row r="9" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="14">
@@ -2344,7 +2400,7 @@
     </row>
     <row r="10" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="13"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="11"/>
@@ -2365,7 +2421,7 @@
       </c>
     </row>
     <row r="11" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="14">
@@ -2385,7 +2441,7 @@
       </c>
     </row>
     <row r="12" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="14">
@@ -2405,7 +2461,7 @@
       </c>
     </row>
     <row r="13" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="14">
@@ -2425,7 +2481,7 @@
       </c>
     </row>
     <row r="14" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="14">
@@ -2445,7 +2501,7 @@
       </c>
     </row>
     <row r="15" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="14">
@@ -2465,7 +2521,7 @@
       </c>
     </row>
     <row r="16" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="14">
@@ -2485,7 +2541,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="14">
@@ -2505,7 +2561,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="14">
@@ -2525,7 +2581,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="27" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="14">
@@ -2546,7 +2602,7 @@
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="16"/>
@@ -2568,7 +2624,7 @@
     </row>
     <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="18"/>
@@ -2590,7 +2646,7 @@
     </row>
     <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="16"/>
@@ -2611,7 +2667,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="27" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="14">
@@ -2632,7 +2688,7 @@
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="27" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="21"/>
@@ -2653,149 +2709,187 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="18"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="24"/>
       <c r="D25" s="14">
-        <v>44531</v>
+        <v>44528</v>
       </c>
       <c r="E25" s="14">
-        <v>44533</v>
+        <v>44528</v>
       </c>
       <c r="F25" s="14">
         <v>44528</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19" t="s">
-        <v>3</v>
+      <c r="G25" s="14">
+        <v>44528</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20"/>
-      <c r="B26" s="18" t="s">
-        <v>40</v>
+      <c r="B26" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="14">
+        <v>44531</v>
+      </c>
+      <c r="E26" s="14">
         <v>44533</v>
       </c>
-      <c r="E26" s="14">
+      <c r="F26" s="14">
+        <v>44528</v>
+      </c>
+      <c r="G26" s="14">
+        <v>44528</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="14">
+        <v>44529</v>
+      </c>
+      <c r="E27" s="14">
+        <v>44530</v>
+      </c>
+      <c r="F27" s="14">
+        <v>44529</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="20"/>
+      <c r="B28" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="14">
+        <v>44533</v>
+      </c>
+      <c r="E28" s="14">
         <v>44537</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="20"/>
-      <c r="B27" s="8" t="s">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="20"/>
+      <c r="B29" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D29" s="14">
         <v>44538</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E29" s="14">
         <v>44542</v>
       </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="15"/>
+      <c r="B30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="14">
+      <c r="C30" s="16"/>
+      <c r="D30" s="14">
         <v>44543</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E30" s="14">
         <v>44546</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="8" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D31" s="14">
         <v>44547</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E31" s="14">
         <v>44552</v>
       </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="8" t="s">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D32" s="14">
         <v>44553</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E32" s="14">
         <v>44555</v>
       </c>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="8" t="s">
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3262,6 +3356,12 @@
     </row>
     <row r="203" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H203" s="12"/>
+    </row>
+    <row r="204" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H204" s="12"/>
+    </row>
+    <row r="205" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H205" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -3280,7 +3380,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA203">
+  <conditionalFormatting sqref="J4:DA205">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -3300,19 +3400,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A203</xm:sqref>
+          <xm:sqref>A4:A205</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H203</xm:sqref>
+          <xm:sqref>H4:H205</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C203</xm:sqref>
+          <xm:sqref>C4:C205</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B83F869-EF32-4362-A03F-BA7FD6C6DEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F79B3-2039-4BD7-9300-090BFFC7368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -451,6 +451,29 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾薬補給場所のモデル作成</t>
+    <rPh sb="0" eb="2">
+      <t>ダンヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホキュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップに配置</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -594,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,6 +689,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -719,7 +754,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1056,12 +1112,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA205"/>
+  <dimension ref="A1:DA207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
       <pane xSplit="8" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="H27" sqref="H27"/>
+      <selection pane="topRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1077,28 +1133,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="38" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1487,14 +1543,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="35"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="39"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -1881,14 +1937,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="37"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -2767,90 +2823,122 @@
       <c r="F27" s="14">
         <v>44529</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="14">
+        <v>44529</v>
+      </c>
       <c r="H27" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="34"/>
+      <c r="B28" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="14">
+        <v>44529</v>
+      </c>
+      <c r="E28" s="14">
+        <v>44529</v>
+      </c>
+      <c r="F28" s="14">
+        <v>44529</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="20"/>
-      <c r="B28" s="27" t="s">
+    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="34"/>
+      <c r="B29" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="14">
+        <v>44530</v>
+      </c>
+      <c r="E29" s="14">
+        <v>44530</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="20"/>
+      <c r="B30" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="14">
+      <c r="C30" s="18"/>
+      <c r="D30" s="14">
         <v>44533</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E30" s="14">
         <v>44537</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="20"/>
-      <c r="B29" s="27" t="s">
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="20"/>
+      <c r="B31" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D31" s="14">
         <v>44538</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E31" s="14">
         <v>44542</v>
       </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="27" t="s">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="15"/>
+      <c r="B32" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="14">
+      <c r="C32" s="16"/>
+      <c r="D32" s="14">
         <v>44543</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E32" s="14">
         <v>44546</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="14">
-        <v>44547</v>
-      </c>
-      <c r="E31" s="14">
-        <v>44552</v>
-      </c>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="14">
-        <v>44553</v>
-      </c>
-      <c r="E32" s="14">
-        <v>44555</v>
-      </c>
-      <c r="H32" s="12"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="14">
+        <v>44547</v>
+      </c>
+      <c r="E33" s="14">
+        <v>44552</v>
+      </c>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="14">
+        <v>44553</v>
+      </c>
+      <c r="E34" s="14">
+        <v>44555</v>
+      </c>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3362,6 +3450,12 @@
     </row>
     <row r="205" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H205" s="12"/>
+    </row>
+    <row r="206" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H206" s="12"/>
+    </row>
+    <row r="207" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H207" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -3380,14 +3474,25 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA205">
-    <cfRule type="expression" dxfId="2" priority="6">
+  <conditionalFormatting sqref="J4:DA27 J30:DA207">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND(J$2&gt;=$D4,J$2&lt;=$E4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:DA29">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(J$2&gt;=$F28,J$2&lt;=$G28)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(J$2&gt;=$D28,J$2&lt;=$E28)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3400,19 +3505,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A205</xm:sqref>
+          <xm:sqref>A4:A207</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H205</xm:sqref>
+          <xm:sqref>H4:H207</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C205</xm:sqref>
+          <xm:sqref>C4:C207</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F79B3-2039-4BD7-9300-090BFFC7368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DD4F07-8036-439F-B2CC-EDD1A2FD21D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DD4F07-8036-439F-B2CC-EDD1A2FD21D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B56A90-5273-4161-9D17-A56BE37240A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -474,6 +474,16 @@
     <t>マップに配置</t>
     <rPh sb="4" eb="6">
       <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーとサプライに当たり判定をつける</t>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -617,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +699,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,12 +1134,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA207"/>
+  <dimension ref="A1:DA208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
       <pane xSplit="8" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="H28" sqref="H28"/>
+      <selection pane="topRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1133,28 +1155,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1543,14 +1565,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -1937,14 +1959,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="41"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="39"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -2845,9 +2867,11 @@
       <c r="F28" s="14">
         <v>44529</v>
       </c>
-      <c r="G28" s="32"/>
+      <c r="G28" s="14">
+        <v>44529</v>
+      </c>
       <c r="H28" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -2862,122 +2886,147 @@
       <c r="E29" s="14">
         <v>44530</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
+      <c r="F29" s="14">
+        <v>44529</v>
+      </c>
+      <c r="G29" s="14">
+        <v>44529</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="20"/>
-      <c r="B30" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="18"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="36"/>
       <c r="D30" s="14">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E30" s="14">
-        <v>44537</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
+        <v>44530</v>
+      </c>
+      <c r="F30" s="14">
+        <v>44530</v>
+      </c>
+      <c r="G30" s="14">
+        <v>44530</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20"/>
       <c r="B31" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="14">
+        <v>44531</v>
+      </c>
+      <c r="E31" s="14">
+        <v>44537</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="20"/>
+      <c r="B32" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <v>44538</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E32" s="14">
         <v>44542</v>
       </c>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="15"/>
-      <c r="B32" s="27" t="s">
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="15"/>
+      <c r="B33" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="14">
+      <c r="C33" s="16"/>
+      <c r="D33" s="14">
         <v>44543</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E33" s="14">
         <v>44546</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="27" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <v>44547</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E34" s="14">
         <v>44552</v>
       </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="27" t="s">
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <v>44553</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E35" s="14">
         <v>44555</v>
       </c>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="27" t="s">
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3456,6 +3505,9 @@
     </row>
     <row r="207" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H207" s="12"/>
+    </row>
+    <row r="208" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H208" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -3474,7 +3526,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA27 J30:DA207">
+  <conditionalFormatting sqref="J4:DA27 J31:DA208">
     <cfRule type="expression" dxfId="5" priority="9">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -3485,7 +3537,7 @@
       <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:DA29">
+  <conditionalFormatting sqref="J28:DA30">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(J$2&gt;=$F28,J$2&lt;=$G28)</formula>
     </cfRule>
@@ -3505,19 +3557,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A207</xm:sqref>
+          <xm:sqref>A4:A208</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H207</xm:sqref>
+          <xm:sqref>H4:H208</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C207</xm:sqref>
+          <xm:sqref>C4:C208</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B56A90-5273-4161-9D17-A56BE37240A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF564C18-02FF-4859-B8E5-361FF963DB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -395,16 +395,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>弾薬補給システム</t>
-    <rPh sb="0" eb="2">
-      <t>ダンヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>予測射撃</t>
     <rPh sb="0" eb="4">
       <t>ヨソクシャゲキ</t>
@@ -484,6 +474,55 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エネミーとサプライの当たり判定</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補給ができるか通知</t>
+    <rPh sb="0" eb="2">
+      <t>ホキュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾数を設定する</t>
+    <rPh sb="0" eb="2">
+      <t>ダンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通知を受け取ったら、弾数を回復する</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ダンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイフク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -627,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +738,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1134,12 +1185,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA208"/>
+  <dimension ref="A1:DA212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
       <pane xSplit="8" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="E31" sqref="E31"/>
+      <selection pane="topRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1155,28 +1206,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1565,14 +1616,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="43"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="47"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -1959,14 +2010,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="45"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="43"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -2746,7 +2797,7 @@
     </row>
     <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="14">
         <v>44529</v>
@@ -2767,7 +2818,7 @@
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23"/>
       <c r="B24" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="14">
@@ -2789,7 +2840,7 @@
     <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="14">
@@ -2833,7 +2884,7 @@
     <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="14">
@@ -2855,7 +2906,7 @@
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="34"/>
       <c r="B28" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="14">
@@ -2877,7 +2928,7 @@
     <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="34"/>
       <c r="B29" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="14">
@@ -2899,7 +2950,7 @@
     <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="38"/>
       <c r="B30" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="14">
@@ -2915,94 +2966,150 @@
         <v>44530</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="20"/>
-      <c r="B31" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="18"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="40"/>
       <c r="D31" s="14">
         <v>44531</v>
       </c>
       <c r="E31" s="14">
-        <v>44537</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+        <v>44532</v>
+      </c>
+      <c r="F31" s="14">
+        <v>44530</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="41" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20"/>
       <c r="B32" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="14">
+        <v>44532</v>
+      </c>
+      <c r="E32" s="14">
+        <v>44534</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="14">
+        <v>44534</v>
+      </c>
+      <c r="E33" s="14">
+        <v>44535</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
+    </row>
+    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="14">
+        <v>44535</v>
+      </c>
+      <c r="E34" s="14">
+        <v>44536</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+    </row>
+    <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="14">
+        <v>44537</v>
+      </c>
+      <c r="E35" s="14">
+        <v>44537</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
+    </row>
+    <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="20"/>
+      <c r="B36" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D36" s="14">
         <v>44538</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E36" s="14">
         <v>44542</v>
       </c>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="15"/>
-      <c r="B33" s="27" t="s">
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="15"/>
+      <c r="B37" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="14">
+      <c r="C37" s="16"/>
+      <c r="D37" s="14">
         <v>44543</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E37" s="14">
         <v>44546</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="27" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D38" s="14">
         <v>44547</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E38" s="14">
         <v>44552</v>
       </c>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="27" t="s">
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D39" s="14">
         <v>44553</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E39" s="14">
         <v>44555</v>
       </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="27" t="s">
+        <v>40</v>
+      </c>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3508,6 +3615,18 @@
     </row>
     <row r="208" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H208" s="12"/>
+    </row>
+    <row r="209" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H209" s="12"/>
+    </row>
+    <row r="210" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H210" s="12"/>
+    </row>
+    <row r="211" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H211" s="12"/>
+    </row>
+    <row r="212" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H212" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -3526,7 +3645,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA27 J31:DA208">
+  <conditionalFormatting sqref="J4:DA27 J32:DA212">
     <cfRule type="expression" dxfId="5" priority="9">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -3537,7 +3656,7 @@
       <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:DA30">
+  <conditionalFormatting sqref="J28:DA31">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(J$2&gt;=$F28,J$2&lt;=$G28)</formula>
     </cfRule>
@@ -3557,19 +3676,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A208</xm:sqref>
+          <xm:sqref>A4:A212</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H208</xm:sqref>
+          <xm:sqref>H4:H212</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C208</xm:sqref>
+          <xm:sqref>C4:C212</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF564C18-02FF-4859-B8E5-361FF963DB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58713D1-3454-4774-9A47-575946C50EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -523,6 +523,39 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補給中は何もできないようにする</t>
+    <rPh sb="0" eb="2">
+      <t>ホキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキルを使っている間、超速リロード</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クイックリロードのSEを追加</t>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -666,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,6 +771,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,12 +1230,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA212"/>
+  <dimension ref="A1:DA213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <pane xSplit="8" topLeftCell="AE1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="E36" sqref="E36"/>
+      <selection pane="topRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1206,28 +1251,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="50" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1616,14 +1661,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="49"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="51"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2010,14 +2055,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="49"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="47"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -2984,9 +3029,11 @@
       <c r="F31" s="14">
         <v>44530</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="14">
+        <v>44530</v>
+      </c>
       <c r="H31" s="41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3022,103 +3069,122 @@
       <c r="H33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="40"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="44"/>
       <c r="D34" s="14">
+        <v>44534</v>
+      </c>
+      <c r="E34" s="14">
         <v>44535</v>
       </c>
-      <c r="E34" s="14">
-        <v>44536</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="42"/>
       <c r="B35" s="43" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="14">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="E35" s="14">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="41"/>
     </row>
     <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="20"/>
-      <c r="B36" s="27" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="14">
+        <v>44537</v>
+      </c>
+      <c r="E36" s="14">
+        <v>44537</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
+    </row>
+    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="20"/>
+      <c r="B37" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="14">
         <v>44538</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E37" s="14">
         <v>44542</v>
       </c>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="15"/>
-      <c r="B37" s="27" t="s">
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="15"/>
+      <c r="B38" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="14">
+      <c r="C38" s="16"/>
+      <c r="D38" s="14">
         <v>44543</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="14">
         <v>44546</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="14">
-        <v>44547</v>
-      </c>
-      <c r="E38" s="14">
-        <v>44552</v>
-      </c>
-      <c r="H38" s="12"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="14">
-        <v>44553</v>
+        <v>44547</v>
       </c>
       <c r="E39" s="14">
-        <v>44555</v>
+        <v>44552</v>
       </c>
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="14">
+        <v>44553</v>
+      </c>
+      <c r="E40" s="14">
+        <v>44555</v>
+      </c>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3627,6 +3693,9 @@
     </row>
     <row r="212" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H212" s="12"/>
+    </row>
+    <row r="213" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H213" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -3645,7 +3714,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA27 J32:DA212">
+  <conditionalFormatting sqref="J4:DA27 J32:DA213">
     <cfRule type="expression" dxfId="5" priority="9">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -3676,19 +3745,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A212</xm:sqref>
+          <xm:sqref>A4:A213</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H212</xm:sqref>
+          <xm:sqref>H4:H213</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C212</xm:sqref>
+          <xm:sqref>C4:C213</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58713D1-3454-4774-9A47-575946C50EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E851094B-A0CB-4876-A853-DCA9F0889C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -1235,7 +1235,7 @@
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
       <pane xSplit="8" topLeftCell="AE1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="D37" sqref="D37"/>
+      <selection pane="topRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3048,9 +3048,15 @@
       <c r="E32" s="14">
         <v>44534</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+      <c r="F32" s="14">
+        <v>44534</v>
+      </c>
+      <c r="G32" s="14">
+        <v>44534</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="42"/>
@@ -3064,9 +3070,15 @@
       <c r="E33" s="14">
         <v>44535</v>
       </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
+      <c r="F33" s="14">
+        <v>44534</v>
+      </c>
+      <c r="G33" s="14">
+        <v>44534</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="46"/>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E851094B-A0CB-4876-A853-DCA9F0889C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194FD0A4-2B7C-4AB6-B925-BBB2F936E756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -556,6 +556,13 @@
     <t>クイックリロードのSEを追加</t>
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Input周りのリファクタリング</t>
+    <rPh sb="5" eb="6">
+      <t>マワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -699,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +778,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -872,7 +891,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1230,12 +1270,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA213"/>
+  <dimension ref="A1:DA214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
       <pane xSplit="8" topLeftCell="AE1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="E36" sqref="E36"/>
+      <selection pane="topRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1251,28 +1291,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="54" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1661,14 +1701,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="51"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="55"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2055,14 +2095,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -3081,125 +3121,144 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="44"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="48"/>
       <c r="D34" s="14">
         <v>44534</v>
       </c>
       <c r="E34" s="14">
         <v>44535</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
+      <c r="F34" s="14">
+        <v>44534</v>
+      </c>
+      <c r="G34" s="14">
+        <v>44534</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="40"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="44"/>
       <c r="D35" s="14">
+        <v>44534</v>
+      </c>
+      <c r="E35" s="14">
         <v>44535</v>
       </c>
-      <c r="E35" s="14">
-        <v>44536</v>
-      </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="42"/>
       <c r="B36" s="43" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="14">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="E36" s="14">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="20"/>
-      <c r="B37" s="27" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="14">
+        <v>44537</v>
+      </c>
+      <c r="E37" s="14">
+        <v>44537</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
+    </row>
+    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="20"/>
+      <c r="B38" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <v>44538</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="14">
         <v>44542</v>
       </c>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="15"/>
-      <c r="B38" s="27" t="s">
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="15"/>
+      <c r="B39" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="14">
+      <c r="C39" s="16"/>
+      <c r="D39" s="14">
         <v>44543</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E39" s="14">
         <v>44546</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="14">
-        <v>44547</v>
-      </c>
-      <c r="E39" s="14">
-        <v>44552</v>
-      </c>
-      <c r="H39" s="12"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="14">
-        <v>44553</v>
+        <v>44547</v>
       </c>
       <c r="E40" s="14">
-        <v>44555</v>
+        <v>44552</v>
       </c>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="27" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="D41" s="14">
+        <v>44553</v>
+      </c>
+      <c r="E41" s="14">
+        <v>44555</v>
       </c>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="27" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3708,6 +3767,9 @@
     </row>
     <row r="213" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H213" s="12"/>
+    </row>
+    <row r="214" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H214" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -3726,23 +3788,34 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA27 J32:DA213">
-    <cfRule type="expression" dxfId="5" priority="9">
+  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA214">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>AND(J$2&gt;=$D4,J$2&lt;=$E4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:DA31">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(J$2&gt;=$F28,J$2&lt;=$G28)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND(J$2&gt;=$D28,J$2&lt;=$E28)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:DA34">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(J$2&gt;=$F34,J$2&lt;=$G34)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(J$2&gt;=$D28,J$2&lt;=$E28)</formula>
+      <formula>AND(J$2&gt;=$D34,J$2&lt;=$E34)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
@@ -3757,19 +3830,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A213</xm:sqref>
+          <xm:sqref>A4:A214</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H213</xm:sqref>
+          <xm:sqref>H4:H214</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C213</xm:sqref>
+          <xm:sqref>C4:C214</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194FD0A4-2B7C-4AB6-B925-BBB2F936E756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D46555B-CE43-46DF-9395-F8C83CE1A6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -563,6 +563,16 @@
     <t>Input周りのリファクタリング</t>
     <rPh sb="5" eb="6">
       <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキル使用時にSEを追加</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1272,10 +1282,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
   <dimension ref="A1:DA214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
       <pane xSplit="8" topLeftCell="AE1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="H34" sqref="H34"/>
+      <selection pane="topRight" activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3156,7 +3166,9 @@
       </c>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
-      <c r="H35" s="45"/>
+      <c r="H35" s="45" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="42"/>
@@ -3172,7 +3184,9 @@
       </c>
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
-      <c r="H36" s="41"/>
+      <c r="H36" s="41" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="42"/>
@@ -3262,6 +3276,9 @@
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D46555B-CE43-46DF-9395-F8C83CE1A6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF71ACD-661B-46AD-9C3F-BC23C2F123B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -478,16 +478,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エネミーとサプライの当たり判定</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>補給ができるか通知</t>
     <rPh sb="0" eb="2">
       <t>ホキュウ</t>
@@ -540,19 +530,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スキルを使っている間、超速リロード</t>
-    <rPh sb="4" eb="5">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>チョウソク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クイックリロードのSEを追加</t>
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
@@ -573,6 +550,30 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リロードシステムのデバッグと修正</t>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキル使用時は超速リロード</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デバッグ期間</t>
+    <rPh sb="4" eb="6">
+      <t>キカン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -716,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,6 +789,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,10 +1295,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
   <dimension ref="A1:DA214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="AM1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="AF35" sqref="AF35"/>
+      <selection pane="topRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1301,28 +1314,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="58" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1711,14 +1724,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="57"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="55"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="59"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2105,14 +2118,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="57"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -2502,7 +2515,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="4" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
@@ -2522,7 +2535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="27" t="s">
         <v>18</v>
       </c>
@@ -2542,7 +2555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="27" t="s">
         <v>19</v>
       </c>
@@ -2562,7 +2575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="27" t="s">
         <v>20</v>
       </c>
@@ -2582,7 +2595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="27" t="s">
         <v>21</v>
       </c>
@@ -2602,7 +2615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
@@ -2622,7 +2635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="13"/>
       <c r="B10" s="27" t="s">
         <v>29</v>
@@ -2644,7 +2657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="27" t="s">
         <v>23</v>
       </c>
@@ -2664,7 +2677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2684,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="27" t="s">
         <v>26</v>
       </c>
@@ -2704,7 +2717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="27" t="s">
         <v>27</v>
       </c>
@@ -2724,7 +2737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="27" t="s">
         <v>30</v>
       </c>
@@ -2744,7 +2757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="27" t="s">
         <v>24</v>
       </c>
@@ -2764,7 +2777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="27" t="s">
         <v>28</v>
       </c>
@@ -2784,7 +2797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="27" t="s">
         <v>26</v>
       </c>
@@ -2804,7 +2817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="27" t="s">
         <v>31</v>
       </c>
@@ -2824,7 +2837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="27" t="s">
         <v>34</v>
@@ -2846,7 +2859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="27" t="s">
         <v>38</v>
@@ -2868,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
       <c r="B22" s="27" t="s">
         <v>35</v>
@@ -2890,7 +2903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
@@ -2910,7 +2923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23"/>
       <c r="B24" s="27" t="s">
         <v>42</v>
@@ -2932,7 +2945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
         <v>43</v>
@@ -2954,7 +2967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20"/>
       <c r="B26" s="27" t="s">
         <v>37</v>
@@ -2976,7 +2989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>44</v>
@@ -2998,7 +3011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="34"/>
       <c r="B28" s="35" t="s">
         <v>45</v>
@@ -3020,7 +3033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="34"/>
       <c r="B29" s="35" t="s">
         <v>46</v>
@@ -3042,7 +3055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="38"/>
       <c r="B30" s="39" t="s">
         <v>47</v>
@@ -3064,10 +3077,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="14">
@@ -3086,10 +3099,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20"/>
       <c r="B32" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="14">
@@ -3108,10 +3121,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="42"/>
       <c r="B33" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="14">
@@ -3130,10 +3143,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="50"/>
       <c r="B34" s="51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="14">
@@ -3155,7 +3168,7 @@
     <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="46"/>
       <c r="B35" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="44"/>
       <c r="D35" s="14">
@@ -3164,8 +3177,12 @@
       <c r="E35" s="14">
         <v>44535</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
+      <c r="F35" s="14">
+        <v>44537</v>
+      </c>
+      <c r="G35" s="14">
+        <v>44537</v>
+      </c>
       <c r="H35" s="45" t="s">
         <v>5</v>
       </c>
@@ -3173,115 +3190,156 @@
     <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="42"/>
       <c r="B36" s="43" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="14">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="E36" s="14">
-        <v>44536</v>
-      </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
+        <v>44537</v>
+      </c>
+      <c r="F36" s="14">
+        <v>44537</v>
+      </c>
+      <c r="G36" s="14">
+        <v>44537</v>
+      </c>
       <c r="H36" s="41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="40"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="52"/>
       <c r="D37" s="14">
         <v>44537</v>
       </c>
       <c r="E37" s="14">
-        <v>44537</v>
-      </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
+        <v>44542</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="53"/>
     </row>
     <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="27" t="s">
+      <c r="A38" s="54"/>
+      <c r="B38" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="14">
+        <v>44542</v>
+      </c>
+      <c r="E38" s="14">
+        <v>44545</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="53"/>
+    </row>
+    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="20"/>
+      <c r="B39" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="14">
-        <v>44538</v>
-      </c>
-      <c r="E38" s="14">
-        <v>44542</v>
-      </c>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="15"/>
-      <c r="B39" s="27" t="s">
+      <c r="D39" s="14">
+        <v>44546</v>
+      </c>
+      <c r="E39" s="14">
+        <v>44550</v>
+      </c>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="15"/>
+      <c r="B40" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="14">
-        <v>44543</v>
-      </c>
-      <c r="E39" s="14">
-        <v>44546</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="C40" s="16"/>
       <c r="D40" s="14">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="E40" s="14">
-        <v>44552</v>
-      </c>
-      <c r="H40" s="12"/>
+        <v>44555</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="14">
-        <v>44553</v>
+        <v>44555</v>
       </c>
       <c r="E41" s="14">
-        <v>44555</v>
+        <v>44561</v>
       </c>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="27" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="D42" s="14">
+        <v>44562</v>
+      </c>
+      <c r="E42" s="14">
+        <v>44566</v>
       </c>
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="27" t="s">
-        <v>53</v>
+        <v>40</v>
+      </c>
+      <c r="D43" s="14">
+        <v>44566</v>
+      </c>
+      <c r="E43" s="14">
+        <v>44571</v>
       </c>
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="D44" s="14">
+        <v>44572</v>
+      </c>
+      <c r="E44" s="14">
+        <v>44572</v>
       </c>
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="D45" s="14">
+        <v>44572</v>
+      </c>
+      <c r="E45" s="14">
+        <v>44572</v>
       </c>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="14">
+        <v>44573</v>
+      </c>
+      <c r="E46" s="14">
+        <v>44592</v>
+      </c>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF71ACD-661B-46AD-9C3F-BC23C2F123B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CDC345-146F-436C-8328-0165F6B230FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -473,6 +473,16 @@
       <t>ア</t>
     </rPh>
     <rPh sb="14" eb="16">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エネミーとサプライの当たり判定</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -717,7 +727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +883,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1293,12 +1312,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA214"/>
+  <dimension ref="A1:DA215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="D37" sqref="D37"/>
+      <selection pane="topRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1314,28 +1333,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="61" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1724,14 +1743,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="61"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="59"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="62"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2118,14 +2137,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="61"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="59"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -3080,7 +3099,7 @@
     <row r="31" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="14">
@@ -3102,7 +3121,7 @@
     <row r="32" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20"/>
       <c r="B32" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="14">
@@ -3124,7 +3143,7 @@
     <row r="33" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="42"/>
       <c r="B33" s="43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="14">
@@ -3146,7 +3165,7 @@
     <row r="34" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="50"/>
       <c r="B34" s="51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="14">
@@ -3168,7 +3187,7 @@
     <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="46"/>
       <c r="B35" s="47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="44"/>
       <c r="D35" s="14">
@@ -3211,8 +3230,8 @@
     </row>
     <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="54"/>
-      <c r="B37" s="55" t="s">
-        <v>55</v>
+      <c r="B37" s="58" t="s">
+        <v>57</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="14">
@@ -3227,7 +3246,7 @@
     </row>
     <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="54"/>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="58" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="52"/>
@@ -3242,85 +3261,89 @@
       <c r="H38" s="53"/>
     </row>
     <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="20"/>
-      <c r="B39" s="27" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="14">
+        <v>44545</v>
+      </c>
+      <c r="E39" s="14">
+        <v>44546</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="56"/>
+    </row>
+    <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="20"/>
+      <c r="B40" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <v>44546</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="14">
         <v>44550</v>
       </c>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="15"/>
-      <c r="B40" s="27" t="s">
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="15"/>
+      <c r="B41" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="14">
+      <c r="C41" s="16"/>
+      <c r="D41" s="14">
         <v>44550</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="14">
         <v>44555</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="14">
-        <v>44555</v>
-      </c>
-      <c r="E41" s="14">
-        <v>44561</v>
-      </c>
-      <c r="H41" s="12"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="14">
-        <v>44562</v>
+        <v>44555</v>
       </c>
       <c r="E42" s="14">
-        <v>44566</v>
+        <v>44561</v>
       </c>
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D43" s="14">
+        <v>44562</v>
+      </c>
+      <c r="E43" s="14">
         <v>44566</v>
-      </c>
-      <c r="E43" s="14">
-        <v>44571</v>
       </c>
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="27" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D44" s="14">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="E44" s="14">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="14">
         <v>44572</v>
@@ -3332,20 +3355,30 @@
     </row>
     <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" s="14">
+        <v>44572</v>
+      </c>
+      <c r="E46" s="14">
+        <v>44572</v>
+      </c>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="14">
         <v>44573</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E47" s="14">
         <v>44592</v>
       </c>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="58"/>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3845,6 +3878,9 @@
     </row>
     <row r="214" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H214" s="12"/>
+    </row>
+    <row r="215" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H215" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -3863,7 +3899,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA214">
+  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA215">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -3905,19 +3941,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A214</xm:sqref>
+          <xm:sqref>A4:A215</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H214</xm:sqref>
+          <xm:sqref>H4:H215</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C214</xm:sqref>
+          <xm:sqref>C4:C215</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CDC345-146F-436C-8328-0165F6B230FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188F48C0-2AE2-4D21-8DB4-14158256E4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -1317,7 +1317,7 @@
     <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
       <pane xSplit="8" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="B40" sqref="B40"/>
+      <selection pane="topRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3240,9 +3240,15 @@
       <c r="E37" s="14">
         <v>44542</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="53"/>
+      <c r="F37" s="14">
+        <v>44538</v>
+      </c>
+      <c r="G37" s="14">
+        <v>44538</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="54"/>
@@ -3256,9 +3262,13 @@
       <c r="E38" s="14">
         <v>44545</v>
       </c>
-      <c r="F38" s="14"/>
+      <c r="F38" s="14">
+        <v>44538</v>
+      </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="53"/>
+      <c r="H38" s="53" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="57"/>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188F48C0-2AE2-4D21-8DB4-14158256E4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E61CB3-EAA5-412D-8DC9-42502F5D52A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -584,6 +584,57 @@
     <t>デバッグ期間</t>
     <rPh sb="4" eb="6">
       <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾が出る位置を戦車の種類によって変化させる</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当たり判定の修正</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戦車の当たり判定の修正</t>
+    <rPh sb="0" eb="2">
+      <t>センシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -727,7 +778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,6 +943,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1312,12 +1375,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA215"/>
+  <dimension ref="A1:DA216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="8" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="H38" sqref="H38"/>
+      <selection pane="topRight" activeCell="AW39" sqref="AW39:AX39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1333,28 +1396,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="65" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1743,14 +1806,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="64"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="62"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="66"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2137,14 +2200,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="64"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="62"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -3265,107 +3328,119 @@
       <c r="F38" s="14">
         <v>44538</v>
       </c>
-      <c r="G38" s="14"/>
+      <c r="G38" s="14">
+        <v>44538</v>
+      </c>
       <c r="H38" s="53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="57"/>
-      <c r="B39" s="58" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="14">
+        <v>44538</v>
+      </c>
+      <c r="E39" s="14">
+        <v>44538</v>
+      </c>
+      <c r="F39" s="14">
+        <v>44538</v>
+      </c>
+      <c r="G39" s="14">
+        <v>44538</v>
+      </c>
+      <c r="H39" s="60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="57"/>
+      <c r="B40" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="14">
+      <c r="C40" s="55"/>
+      <c r="D40" s="14">
         <v>44545</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="14">
         <v>44546</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="56"/>
-    </row>
-    <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="27" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="56"/>
+    </row>
+    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="20"/>
+      <c r="B41" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <v>44546</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="14">
         <v>44550</v>
       </c>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="15"/>
-      <c r="B41" s="27" t="s">
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="15"/>
+      <c r="B42" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="14">
+      <c r="C42" s="16"/>
+      <c r="D42" s="14">
         <v>44550</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="14">
         <v>44555</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="14">
-        <v>44555</v>
-      </c>
-      <c r="E42" s="14">
-        <v>44561</v>
-      </c>
-      <c r="H42" s="12"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="14">
-        <v>44562</v>
+        <v>44555</v>
       </c>
       <c r="E43" s="14">
-        <v>44566</v>
+        <v>44561</v>
       </c>
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D44" s="14">
+        <v>44562</v>
+      </c>
+      <c r="E44" s="14">
         <v>44566</v>
-      </c>
-      <c r="E44" s="14">
-        <v>44571</v>
       </c>
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="27" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D45" s="14">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="E45" s="14">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" s="14">
         <v>44572</v>
@@ -3377,66 +3452,80 @@
     </row>
     <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="14">
+        <v>44572</v>
+      </c>
+      <c r="E47" s="14">
+        <v>44572</v>
+      </c>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <v>44573</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E48" s="14">
         <v>44592</v>
       </c>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="58"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="58" t="s">
+        <v>59</v>
+      </c>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="27" t="s">
+        <v>60</v>
+      </c>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H64" s="12"/>
     </row>
     <row r="65" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3891,6 +3980,9 @@
     </row>
     <row r="215" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H215" s="12"/>
+    </row>
+    <row r="216" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H216" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -3909,7 +4001,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA215">
+  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA216">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -3951,19 +4043,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A215</xm:sqref>
+          <xm:sqref>A4:A216</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H215</xm:sqref>
+          <xm:sqref>H4:H216</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C215</xm:sqref>
+          <xm:sqref>C4:C216</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E61CB3-EAA5-412D-8DC9-42502F5D52A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F17413-BF3A-4156-8705-B4E6B4FAEB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -635,6 +635,13 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リロードシステムの見直しをする</t>
+    <rPh sb="9" eb="11">
+      <t>ミナオ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -778,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,6 +950,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1375,12 +1394,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA216"/>
+  <dimension ref="A1:DA217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="8" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="AW39" sqref="AW39:AX39"/>
+      <selection pane="topRight" activeCell="AY39" sqref="AY39:AZ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1396,28 +1415,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="69" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1806,14 +1825,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="70"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2200,14 +2219,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="68"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="66"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="70"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -3358,101 +3377,109 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="57"/>
-      <c r="B40" s="58" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="63"/>
+      <c r="D40" s="14">
+        <v>44538</v>
+      </c>
+      <c r="E40" s="14">
+        <v>44544</v>
+      </c>
+      <c r="F40" s="14">
+        <v>44538</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="57"/>
+      <c r="B41" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="14">
+      <c r="C41" s="55"/>
+      <c r="D41" s="14">
         <v>44545</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="14">
         <v>44546</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="56"/>
-    </row>
-    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="27" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="56"/>
+    </row>
+    <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="20"/>
+      <c r="B42" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <v>44546</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="14">
         <v>44550</v>
       </c>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="15"/>
-      <c r="B42" s="27" t="s">
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="15"/>
+      <c r="B43" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="14">
+      <c r="C43" s="16"/>
+      <c r="D43" s="14">
         <v>44550</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E43" s="14">
         <v>44555</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
-    </row>
-    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="14">
-        <v>44555</v>
-      </c>
-      <c r="E43" s="14">
-        <v>44561</v>
-      </c>
-      <c r="H43" s="12"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="14">
-        <v>44562</v>
+        <v>44555</v>
       </c>
       <c r="E44" s="14">
-        <v>44566</v>
+        <v>44561</v>
       </c>
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D45" s="14">
+        <v>44562</v>
+      </c>
+      <c r="E45" s="14">
         <v>44566</v>
-      </c>
-      <c r="E45" s="14">
-        <v>44571</v>
       </c>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="27" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D46" s="14">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="E46" s="14">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" s="14">
         <v>44572</v>
@@ -3464,29 +3491,38 @@
     </row>
     <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="14">
+        <v>44572</v>
+      </c>
+      <c r="E48" s="14">
+        <v>44572</v>
+      </c>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="14">
         <v>44573</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E49" s="14">
         <v>44592</v>
       </c>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="58" t="s">
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="27" t="s">
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3983,6 +4019,9 @@
     </row>
     <row r="216" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H216" s="12"/>
+    </row>
+    <row r="217" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H217" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -4001,7 +4040,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA216">
+  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA217">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -4043,19 +4082,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A216</xm:sqref>
+          <xm:sqref>A4:A217</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H216</xm:sqref>
+          <xm:sqref>H4:H217</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C216</xm:sqref>
+          <xm:sqref>C4:C217</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F17413-BF3A-4156-8705-B4E6B4FAEB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B2F02-0C72-47EF-B7AA-A3C41103D8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -478,16 +478,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エネミーとサプライの当たり判定</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>補給ができるか通知</t>
     <rPh sb="0" eb="2">
       <t>ホキュウ</t>
@@ -610,19 +600,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>当たり判定の修正</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>戦車の当たり判定の修正</t>
     <rPh sb="0" eb="2">
       <t>センシャ</t>
@@ -642,6 +619,46 @@
     <t>リロードシステムの見直しをする</t>
     <rPh sb="9" eb="11">
       <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>enemyのリファクタリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵のリロードシステムを変更（リロードの時間を固定にする）</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エネミーとサプライが当たったら、バックする</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーとサプライに当たり判定の修正</t>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -785,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,6 +967,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1015,7 +1056,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1394,12 +1456,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA217"/>
+  <dimension ref="A1:DA219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="AN1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="AY39" sqref="AY39:AZ40"/>
+      <selection pane="topRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1410,33 +1472,34 @@
     <col min="4" max="7" width="10.625" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.625" style="10" customWidth="1"/>
     <col min="9" max="9" width="2.625" style="7" customWidth="1"/>
-    <col min="10" max="105" width="4.625" style="4" customWidth="1"/>
+    <col min="10" max="39" width="4.625" style="4" hidden="1" customWidth="1"/>
+    <col min="40" max="105" width="4.625" style="4" customWidth="1"/>
     <col min="106" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="77" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1825,14 +1888,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="70"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="78"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2219,14 +2282,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="72"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="70"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -3181,7 +3244,7 @@
     <row r="31" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="14">
@@ -3203,7 +3266,7 @@
     <row r="32" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20"/>
       <c r="B32" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="14">
@@ -3225,7 +3288,7 @@
     <row r="33" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="42"/>
       <c r="B33" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="14">
@@ -3247,7 +3310,7 @@
     <row r="34" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="50"/>
       <c r="B34" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="14">
@@ -3269,7 +3332,7 @@
     <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="46"/>
       <c r="B35" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="44"/>
       <c r="D35" s="14">
@@ -3313,7 +3376,7 @@
     <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="54"/>
       <c r="B37" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="14">
@@ -3335,7 +3398,7 @@
     <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="54"/>
       <c r="B38" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="14">
@@ -3357,7 +3420,7 @@
     <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="61"/>
       <c r="B39" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="14">
@@ -3379,7 +3442,7 @@
     <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="65"/>
       <c r="B40" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" s="63"/>
       <c r="D40" s="14">
@@ -3391,177 +3454,229 @@
       <c r="F40" s="14">
         <v>44538</v>
       </c>
-      <c r="G40" s="14"/>
+      <c r="G40" s="14">
+        <v>44544</v>
+      </c>
       <c r="H40" s="64" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="57"/>
-      <c r="B41" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="55"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="67"/>
       <c r="D41" s="14">
+        <v>44544</v>
+      </c>
+      <c r="E41" s="14">
         <v>44545</v>
       </c>
-      <c r="E41" s="14">
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="68"/>
+    </row>
+    <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="69"/>
+      <c r="B42" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="67"/>
+      <c r="D42" s="14">
+        <v>44544</v>
+      </c>
+      <c r="E42" s="14">
+        <v>44545</v>
+      </c>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="68"/>
+    </row>
+    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="69"/>
+      <c r="B43" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="67"/>
+      <c r="D43" s="14">
+        <v>44545</v>
+      </c>
+      <c r="E43" s="14">
+        <v>44545</v>
+      </c>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="68"/>
+    </row>
+    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="73"/>
+      <c r="B44" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="14">
+        <v>44545</v>
+      </c>
+      <c r="E44" s="14">
         <v>44546</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="56"/>
-    </row>
-    <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="20"/>
-      <c r="B42" s="27" t="s">
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="72"/>
+    </row>
+    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="57"/>
+      <c r="B45" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="14">
+        <v>44545</v>
+      </c>
+      <c r="E45" s="14">
+        <v>44546</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="56"/>
+    </row>
+    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="20"/>
+      <c r="B46" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D46" s="14">
         <v>44546</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E46" s="14">
         <v>44550</v>
       </c>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="15"/>
-      <c r="B43" s="27" t="s">
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="15"/>
+      <c r="B47" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="14">
+      <c r="C47" s="16"/>
+      <c r="D47" s="14">
         <v>44550</v>
       </c>
-      <c r="E43" s="14">
-        <v>44555</v>
-      </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
-    </row>
-    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="14">
-        <v>44555</v>
-      </c>
-      <c r="E44" s="14">
-        <v>44561</v>
-      </c>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="14">
-        <v>44562</v>
-      </c>
-      <c r="E45" s="14">
-        <v>44566</v>
-      </c>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="14">
-        <v>44566</v>
-      </c>
-      <c r="E46" s="14">
-        <v>44571</v>
-      </c>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="14">
-        <v>44572</v>
-      </c>
       <c r="E47" s="14">
-        <v>44572</v>
-      </c>
-      <c r="H47" s="12"/>
+        <v>44553</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="27" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D48" s="14">
-        <v>44572</v>
+        <v>44553</v>
       </c>
       <c r="E48" s="14">
-        <v>44572</v>
+        <v>44555</v>
       </c>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="14">
+        <v>44555</v>
+      </c>
+      <c r="E49" s="14">
+        <v>44557</v>
+      </c>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="14">
+        <v>44557</v>
+      </c>
+      <c r="E50" s="14">
+        <v>44559</v>
+      </c>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="14">
-        <v>44573</v>
-      </c>
-      <c r="E49" s="14">
+      <c r="D51" s="14">
+        <v>44560</v>
+      </c>
+      <c r="E51" s="14">
+        <v>44562</v>
+      </c>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="73"/>
+      <c r="B52" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="71"/>
+      <c r="D52" s="14">
+        <v>44563</v>
+      </c>
+      <c r="E52" s="14">
+        <v>44565</v>
+      </c>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="72"/>
+    </row>
+    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="14">
+        <v>44565</v>
+      </c>
+      <c r="E53" s="14">
         <v>44592</v>
       </c>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H64" s="12"/>
     </row>
     <row r="65" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -4022,6 +4137,12 @@
     </row>
     <row r="217" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H217" s="12"/>
+    </row>
+    <row r="218" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H218" s="12"/>
+    </row>
+    <row r="219" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H219" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -4040,34 +4161,45 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA217">
-    <cfRule type="expression" dxfId="8" priority="12">
+  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA40 J45:DA219">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>AND(J$2&gt;=$D4,J$2&lt;=$E4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:DA31">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>AND(J$2&gt;=$F28,J$2&lt;=$G28)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>AND(J$2&gt;=$D28,J$2&lt;=$E28)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:DA34">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND(J$2&gt;=$F34,J$2&lt;=$G34)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(J$2&gt;=$D28,J$2&lt;=$E28)</formula>
+      <formula>AND(J$2&gt;=$D34,J$2&lt;=$E34)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:DA34">
+  <conditionalFormatting sqref="J41:DA44">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND(J$2&gt;=$F34,J$2&lt;=$G34)</formula>
+      <formula>AND(J$2&gt;=$F41,J$2&lt;=$G41)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(J$2&gt;=$D34,J$2&lt;=$E34)</formula>
+      <formula>AND(J$2&gt;=$D41,J$2&lt;=$E41)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>OR(WEEKDAY(J$3)=1,WEEKDAY(J$3)=7)</formula>
@@ -4082,19 +4214,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A217</xm:sqref>
+          <xm:sqref>A4:A219</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H217</xm:sqref>
+          <xm:sqref>H4:H219</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C217</xm:sqref>
+          <xm:sqref>C4:C219</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B2F02-0C72-47EF-B7AA-A3C41103D8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2DBE8E-BC2E-48B0-BF8B-BDC5F96BECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -802,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,6 +1027,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1458,10 +1461,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
   <dimension ref="A1:DA219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="BU1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="B43" sqref="B43"/>
+      <selection pane="topRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1478,28 +1481,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="78" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1888,14 +1891,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="80"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="79"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2282,14 +2285,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="80"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="78"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -3398,14 +3401,14 @@
     <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="54"/>
       <c r="B38" s="58" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="14">
-        <v>44542</v>
+        <v>44538</v>
       </c>
       <c r="E38" s="14">
-        <v>44545</v>
+        <v>44538</v>
       </c>
       <c r="F38" s="14">
         <v>44538</v>
@@ -3420,20 +3423,20 @@
     <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="61"/>
       <c r="B39" s="62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="14">
         <v>44538</v>
       </c>
       <c r="E39" s="14">
-        <v>44538</v>
+        <v>44544</v>
       </c>
       <c r="F39" s="14">
         <v>44538</v>
       </c>
       <c r="G39" s="14">
-        <v>44538</v>
+        <v>44544</v>
       </c>
       <c r="H39" s="60" t="s">
         <v>4</v>
@@ -3442,20 +3445,20 @@
     <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="65"/>
       <c r="B40" s="66" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C40" s="63"/>
       <c r="D40" s="14">
-        <v>44538</v>
+        <v>44542</v>
       </c>
       <c r="E40" s="14">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="F40" s="14">
         <v>44538</v>
       </c>
       <c r="G40" s="14">
-        <v>44544</v>
+        <v>44538</v>
       </c>
       <c r="H40" s="64" t="s">
         <v>4</v>
@@ -3464,30 +3467,36 @@
     <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="69"/>
       <c r="B41" s="70" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C41" s="67"/>
       <c r="D41" s="14">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="E41" s="14">
+        <v>44546</v>
+      </c>
+      <c r="F41" s="14">
         <v>44545</v>
       </c>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="68"/>
+      <c r="G41" s="14">
+        <v>44546</v>
+      </c>
+      <c r="H41" s="68" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="69"/>
       <c r="B42" s="70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C42" s="67"/>
       <c r="D42" s="14">
-        <v>44544</v>
+        <v>44550</v>
       </c>
       <c r="E42" s="14">
-        <v>44545</v>
+        <v>44550</v>
       </c>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
@@ -3496,14 +3505,14 @@
     <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="69"/>
       <c r="B43" s="70" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C43" s="67"/>
       <c r="D43" s="14">
-        <v>44545</v>
+        <v>44550</v>
       </c>
       <c r="E43" s="14">
-        <v>44545</v>
+        <v>44550</v>
       </c>
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
@@ -3512,17 +3521,17 @@
     <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="73"/>
       <c r="B44" s="74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="71"/>
       <c r="D44" s="14">
-        <v>44545</v>
+        <v>44550</v>
       </c>
       <c r="E44" s="14">
-        <v>44546</v>
-      </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
+        <v>44550</v>
+      </c>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
       <c r="H44" s="72"/>
     </row>
     <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3532,10 +3541,10 @@
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="14">
-        <v>44545</v>
+        <v>44550</v>
       </c>
       <c r="E45" s="14">
-        <v>44546</v>
+        <v>44551</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
@@ -3547,10 +3556,10 @@
         <v>36</v>
       </c>
       <c r="D46" s="14">
-        <v>44546</v>
+        <v>44551</v>
       </c>
       <c r="E46" s="14">
-        <v>44550</v>
+        <v>44555</v>
       </c>
       <c r="H46" s="12"/>
     </row>
@@ -3561,10 +3570,10 @@
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="14">
-        <v>44550</v>
+        <v>44555</v>
       </c>
       <c r="E47" s="14">
-        <v>44553</v>
+        <v>41273</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -3575,10 +3584,10 @@
         <v>32</v>
       </c>
       <c r="D48" s="14">
-        <v>44553</v>
+        <v>44560</v>
       </c>
       <c r="E48" s="14">
-        <v>44555</v>
+        <v>44561</v>
       </c>
       <c r="H48" s="12"/>
     </row>
@@ -3587,48 +3596,48 @@
         <v>33</v>
       </c>
       <c r="D49" s="14">
-        <v>44555</v>
+        <v>44562</v>
       </c>
       <c r="E49" s="14">
-        <v>44557</v>
+        <v>44566</v>
       </c>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="27" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D50" s="14">
-        <v>44557</v>
+        <v>44565</v>
       </c>
       <c r="E50" s="14">
-        <v>44559</v>
+        <v>44592</v>
       </c>
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="58" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D51" s="14">
-        <v>44560</v>
+        <v>44567</v>
       </c>
       <c r="E51" s="14">
-        <v>44562</v>
+        <v>44571</v>
       </c>
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="73"/>
       <c r="B52" s="74" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C52" s="71"/>
       <c r="D52" s="14">
-        <v>44563</v>
+        <v>44572</v>
       </c>
       <c r="E52" s="14">
-        <v>44565</v>
+        <v>44578</v>
       </c>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
@@ -3636,13 +3645,13 @@
     </row>
     <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="27" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D53" s="14">
-        <v>44565</v>
+        <v>44578</v>
       </c>
       <c r="E53" s="14">
-        <v>44592</v>
+        <v>44581</v>
       </c>
       <c r="H53" s="12"/>
     </row>
@@ -4146,7 +4155,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H24">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:H53">
       <sortCondition ref="D1:D3"/>
     </sortState>
   </autoFilter>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2DBE8E-BC2E-48B0-BF8B-BDC5F96BECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEA2679-8659-49A1-8C61-0A20CD488445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -802,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,9 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1461,10 +1458,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
   <dimension ref="A1:DA219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="BU1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="AT1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="F42" sqref="F42"/>
+      <selection pane="topRight" activeCell="AT53" sqref="AT53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1481,28 +1478,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="77" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1891,14 +1888,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="81"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="78"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2285,14 +2282,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -3498,9 +3495,15 @@
       <c r="E42" s="14">
         <v>44550</v>
       </c>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="68"/>
+      <c r="F42" s="14">
+        <v>44550</v>
+      </c>
+      <c r="G42" s="14">
+        <v>44550</v>
+      </c>
+      <c r="H42" s="68" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="69"/>
@@ -3514,9 +3517,15 @@
       <c r="E43" s="14">
         <v>44550</v>
       </c>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="68"/>
+      <c r="F43" s="14">
+        <v>44550</v>
+      </c>
+      <c r="G43" s="14">
+        <v>44550</v>
+      </c>
+      <c r="H43" s="68" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="73"/>
@@ -3530,9 +3539,15 @@
       <c r="E44" s="14">
         <v>44550</v>
       </c>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="72"/>
+      <c r="F44" s="14">
+        <v>44550</v>
+      </c>
+      <c r="G44" s="14">
+        <v>44551</v>
+      </c>
+      <c r="H44" s="72" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="57"/>
@@ -4218,7 +4233,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9AADB69-4FA7-4F2B-94FE-17A85F68A816}">
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEA2679-8659-49A1-8C61-0A20CD488445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BA968E-E432-430C-9BE5-E8C1D84F6E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -802,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,6 +1027,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1461,7 +1464,7 @@
     <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
       <pane xSplit="8" topLeftCell="AT1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="AT53" sqref="AT53"/>
+      <selection pane="topRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1478,28 +1481,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="78" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1888,14 +1891,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="80"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="79"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2282,14 +2285,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="80"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="78"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -3552,122 +3555,138 @@
     <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="57"/>
       <c r="B45" s="58" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="14">
+        <v>44572</v>
+      </c>
+      <c r="E45" s="14">
+        <v>44578</v>
+      </c>
+      <c r="F45" s="14">
         <v>44550</v>
       </c>
-      <c r="E45" s="14">
-        <v>44551</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="56"/>
+      <c r="G45" s="14">
+        <v>44550</v>
+      </c>
+      <c r="H45" s="56" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20"/>
       <c r="B46" s="27" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D46" s="14">
-        <v>44551</v>
+        <v>44578</v>
       </c>
       <c r="E46" s="14">
-        <v>44555</v>
-      </c>
-      <c r="H46" s="12"/>
+        <v>44581</v>
+      </c>
+      <c r="F46" s="14">
+        <v>44556</v>
+      </c>
+      <c r="G46" s="14">
+        <v>44557</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15"/>
       <c r="B47" s="27" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="14">
-        <v>44555</v>
+        <v>44550</v>
       </c>
       <c r="E47" s="14">
-        <v>41273</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+        <v>44551</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
       <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D48" s="14">
-        <v>44560</v>
+        <v>44551</v>
       </c>
       <c r="E48" s="14">
-        <v>44561</v>
+        <v>44555</v>
       </c>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D49" s="14">
-        <v>44562</v>
+        <v>44555</v>
       </c>
       <c r="E49" s="14">
-        <v>44566</v>
+        <v>41273</v>
       </c>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="27" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D50" s="14">
-        <v>44565</v>
+        <v>44560</v>
       </c>
       <c r="E50" s="14">
-        <v>44592</v>
+        <v>44561</v>
       </c>
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="58" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D51" s="14">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="E51" s="14">
-        <v>44571</v>
+        <v>44566</v>
       </c>
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="73"/>
       <c r="B52" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="71"/>
       <c r="D52" s="14">
-        <v>44572</v>
+        <v>44565</v>
       </c>
       <c r="E52" s="14">
-        <v>44578</v>
-      </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
+        <v>44592</v>
+      </c>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
       <c r="H52" s="72"/>
     </row>
     <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="27" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D53" s="14">
-        <v>44578</v>
+        <v>44567</v>
       </c>
       <c r="E53" s="14">
-        <v>44581</v>
-      </c>
+        <v>44571</v>
+      </c>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -4171,7 +4190,7 @@
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:H53">
-      <sortCondition ref="D1:D3"/>
+      <sortCondition descending="1" ref="H1:H3"/>
     </sortState>
   </autoFilter>
   <mergeCells count="8">
@@ -4233,7 +4252,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9AADB69-4FA7-4F2B-94FE-17A85F68A816}">
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BA968E-E432-430C-9BE5-E8C1D84F6E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B72B3DF-0E2A-4A87-9973-8AC48B825A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -659,6 +659,16 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チュートリアルステージの作り込み</t>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -802,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,6 +1037,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1461,10 +1474,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
   <dimension ref="A1:DA219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="AT1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="CB1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="B48" sqref="B48"/>
+      <selection pane="topRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1475,34 +1488,34 @@
     <col min="4" max="7" width="10.625" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.625" style="10" customWidth="1"/>
     <col min="9" max="9" width="2.625" style="7" customWidth="1"/>
-    <col min="10" max="39" width="4.625" style="4" hidden="1" customWidth="1"/>
-    <col min="40" max="105" width="4.625" style="4" customWidth="1"/>
+    <col min="10" max="79" width="4.625" style="4" hidden="1" customWidth="1"/>
+    <col min="80" max="105" width="4.625" style="4" customWidth="1"/>
     <col min="106" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="79" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1891,14 +1904,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="81"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="80"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2285,14 +2298,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="81"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="79"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -3332,344 +3345,366 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="46"/>
       <c r="B35" s="47" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C35" s="44"/>
       <c r="D35" s="14">
-        <v>44534</v>
+        <v>44551</v>
       </c>
       <c r="E35" s="14">
-        <v>44535</v>
+        <v>44555</v>
       </c>
       <c r="F35" s="14">
-        <v>44537</v>
+        <v>44571</v>
       </c>
       <c r="G35" s="14">
-        <v>44537</v>
+        <v>44571</v>
       </c>
       <c r="H35" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="42"/>
       <c r="B36" s="43" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="14">
-        <v>44537</v>
+        <v>44560</v>
       </c>
       <c r="E36" s="14">
-        <v>44537</v>
+        <v>44561</v>
       </c>
       <c r="F36" s="14">
-        <v>44537</v>
+        <v>44571</v>
       </c>
       <c r="G36" s="14">
-        <v>44537</v>
+        <v>44571</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="54"/>
       <c r="B37" s="58" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="14">
-        <v>44537</v>
+        <v>44578</v>
       </c>
       <c r="E37" s="14">
-        <v>44542</v>
+        <v>44581</v>
       </c>
       <c r="F37" s="14">
-        <v>44538</v>
+        <v>44556</v>
       </c>
       <c r="G37" s="14">
-        <v>44538</v>
+        <v>44557</v>
       </c>
       <c r="H37" s="53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="54"/>
       <c r="B38" s="58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="E38" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="F38" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="G38" s="14">
-        <v>44538</v>
+        <v>44551</v>
       </c>
       <c r="H38" s="53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="61"/>
       <c r="B39" s="62" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="E39" s="14">
-        <v>44544</v>
+        <v>44550</v>
       </c>
       <c r="F39" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="G39" s="14">
-        <v>44544</v>
+        <v>44550</v>
       </c>
       <c r="H39" s="60" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="65"/>
       <c r="B40" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="63"/>
       <c r="D40" s="14">
-        <v>44542</v>
+        <v>44550</v>
       </c>
       <c r="E40" s="14">
-        <v>44545</v>
+        <v>44550</v>
       </c>
       <c r="F40" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="G40" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="H40" s="64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="69"/>
       <c r="B41" s="70" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C41" s="67"/>
       <c r="D41" s="14">
-        <v>44545</v>
+        <v>44572</v>
       </c>
       <c r="E41" s="14">
-        <v>44546</v>
+        <v>44578</v>
       </c>
       <c r="F41" s="14">
-        <v>44545</v>
+        <v>44550</v>
       </c>
       <c r="G41" s="14">
-        <v>44546</v>
+        <v>44550</v>
       </c>
       <c r="H41" s="68" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="69"/>
       <c r="B42" s="70" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C42" s="67"/>
       <c r="D42" s="14">
-        <v>44550</v>
+        <v>44545</v>
       </c>
       <c r="E42" s="14">
-        <v>44550</v>
+        <v>44546</v>
       </c>
       <c r="F42" s="14">
-        <v>44550</v>
+        <v>44545</v>
       </c>
       <c r="G42" s="14">
-        <v>44550</v>
+        <v>44546</v>
       </c>
       <c r="H42" s="68" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="69"/>
       <c r="B43" s="70" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C43" s="67"/>
       <c r="D43" s="14">
-        <v>44550</v>
+        <v>44538</v>
       </c>
       <c r="E43" s="14">
-        <v>44550</v>
+        <v>44544</v>
       </c>
       <c r="F43" s="14">
-        <v>44550</v>
+        <v>44538</v>
       </c>
       <c r="G43" s="14">
-        <v>44550</v>
+        <v>44544</v>
       </c>
       <c r="H43" s="68" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="73"/>
       <c r="B44" s="74" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C44" s="71"/>
       <c r="D44" s="14">
-        <v>44550</v>
+        <v>44537</v>
       </c>
       <c r="E44" s="14">
-        <v>44550</v>
+        <v>44542</v>
       </c>
       <c r="F44" s="14">
-        <v>44550</v>
+        <v>44538</v>
       </c>
       <c r="G44" s="14">
-        <v>44551</v>
+        <v>44538</v>
       </c>
       <c r="H44" s="72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="57"/>
       <c r="B45" s="58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="14">
-        <v>44572</v>
+        <v>44538</v>
       </c>
       <c r="E45" s="14">
-        <v>44578</v>
+        <v>44538</v>
       </c>
       <c r="F45" s="14">
-        <v>44550</v>
+        <v>44538</v>
       </c>
       <c r="G45" s="14">
-        <v>44550</v>
+        <v>44538</v>
       </c>
       <c r="H45" s="56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20"/>
       <c r="B46" s="27" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D46" s="14">
-        <v>44578</v>
+        <v>44542</v>
       </c>
       <c r="E46" s="14">
-        <v>44581</v>
+        <v>44545</v>
       </c>
       <c r="F46" s="14">
-        <v>44556</v>
+        <v>44538</v>
       </c>
       <c r="G46" s="14">
-        <v>44557</v>
+        <v>44538</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15"/>
       <c r="B47" s="27" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="14">
-        <v>44550</v>
+        <v>44534</v>
       </c>
       <c r="E47" s="14">
-        <v>44551</v>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="17"/>
-    </row>
-    <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+        <v>44535</v>
+      </c>
+      <c r="F47" s="14">
+        <v>44537</v>
+      </c>
+      <c r="G47" s="14">
+        <v>44537</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="27" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D48" s="14">
-        <v>44551</v>
+        <v>44537</v>
       </c>
       <c r="E48" s="14">
-        <v>44555</v>
-      </c>
-      <c r="H48" s="12"/>
+        <v>44537</v>
+      </c>
+      <c r="F48" s="14">
+        <v>44537</v>
+      </c>
+      <c r="G48" s="14">
+        <v>44537</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="27" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D49" s="14">
-        <v>44555</v>
+        <v>44550</v>
       </c>
       <c r="E49" s="14">
-        <v>41273</v>
-      </c>
+        <v>44551</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D50" s="14">
-        <v>44560</v>
+        <v>44555</v>
       </c>
       <c r="E50" s="14">
-        <v>44561</v>
-      </c>
-      <c r="H50" s="12"/>
+        <v>41273</v>
+      </c>
+      <c r="F50" s="14">
+        <v>44571</v>
+      </c>
+      <c r="G50" s="76"/>
+      <c r="H50" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="58" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D51" s="14">
-        <v>44562</v>
+        <v>44565</v>
       </c>
       <c r="E51" s="14">
-        <v>44566</v>
+        <v>44592</v>
       </c>
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="73"/>
       <c r="B52" s="74" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C52" s="71"/>
       <c r="D52" s="14">
-        <v>44565</v>
+        <v>44572</v>
       </c>
       <c r="E52" s="14">
-        <v>44592</v>
+        <v>44574</v>
       </c>
       <c r="F52" s="75"/>
       <c r="G52" s="75"/>
@@ -3677,19 +3712,30 @@
     </row>
     <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D53" s="14">
-        <v>44567</v>
+        <v>44573</v>
       </c>
       <c r="E53" s="14">
-        <v>44571</v>
-      </c>
-      <c r="F53" s="75"/>
+        <v>44576</v>
+      </c>
+      <c r="F53" s="76"/>
       <c r="G53" s="75"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="14">
+        <v>44576</v>
+      </c>
+      <c r="E54" s="14">
+        <v>44581</v>
+      </c>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
       <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -4189,8 +4235,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:H53">
-      <sortCondition descending="1" ref="H1:H3"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:H54">
+      <sortCondition ref="D1:D3"/>
     </sortState>
   </autoFilter>
   <mergeCells count="8">

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B72B3DF-0E2A-4A87-9973-8AC48B825A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F60CD6-4398-4E79-8045-DBC39936D468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -669,6 +669,13 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補給範囲をパーティクルでわかりやすくする</t>
+    <rPh sb="0" eb="4">
+      <t>ホキュウハンイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -812,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1043,6 +1050,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1472,12 +1491,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA219"/>
+  <dimension ref="A1:DA220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="8" topLeftCell="CB1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="F49" sqref="F49"/>
+      <selection pane="topRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1494,28 +1513,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="83" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1904,14 +1923,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="80"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="84"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2298,14 +2317,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="82"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -3695,50 +3714,71 @@
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="73"/>
-      <c r="B52" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="71"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="77"/>
       <c r="D52" s="14">
         <v>44572</v>
       </c>
       <c r="E52" s="14">
+        <v>44573</v>
+      </c>
+      <c r="F52" s="14">
+        <v>44572</v>
+      </c>
+      <c r="G52" s="14">
+        <v>44573</v>
+      </c>
+      <c r="H52" s="78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="73"/>
+      <c r="B53" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="71"/>
+      <c r="D53" s="14">
+        <v>44572</v>
+      </c>
+      <c r="E53" s="14">
         <v>44574</v>
       </c>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="72"/>
-    </row>
-    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="14">
-        <v>44573</v>
-      </c>
-      <c r="E53" s="14">
-        <v>44576</v>
-      </c>
-      <c r="F53" s="76"/>
+      <c r="F53" s="75"/>
       <c r="G53" s="75"/>
-      <c r="H53" s="12"/>
+      <c r="H53" s="72"/>
     </row>
     <row r="54" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="14">
+        <v>44573</v>
+      </c>
+      <c r="E54" s="14">
+        <v>44576</v>
+      </c>
+      <c r="F54" s="14">
+        <v>44573</v>
+      </c>
+      <c r="G54" s="75"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <v>44576</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E55" s="14">
         <v>44581</v>
       </c>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
       <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -4232,6 +4272,9 @@
     </row>
     <row r="219" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H219" s="12"/>
+    </row>
+    <row r="220" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H220" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -4250,7 +4293,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA40 J45:DA219">
+  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA40 J45:DA220">
     <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -4303,19 +4346,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A219</xm:sqref>
+          <xm:sqref>A4:A220</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H219</xm:sqref>
+          <xm:sqref>H4:H220</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C219</xm:sqref>
+          <xm:sqref>C4:C220</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F60CD6-4398-4E79-8045-DBC39936D468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABB849D-CC27-46BA-8ECE-03CFE5BC02E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -340,13 +340,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テクスチャの修正</t>
-    <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>リロード関係のリファクタリング</t>
     <rPh sb="4" eb="6">
       <t>カンケイ</t>
@@ -676,6 +669,55 @@
     <t>補給範囲をパーティクルでわかりやすくする</t>
     <rPh sb="0" eb="4">
       <t>ホキュウハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テクスチャ：操作方法の修正</t>
+    <rPh sb="6" eb="10">
+      <t>ソウサホウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テクスチャ：ゲームの説明を修正</t>
+    <rPh sb="10" eb="12">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テクスチャ：選択枠を修正</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テクスチャ：スキルの説明を戦車分作成</t>
+    <rPh sb="10" eb="12">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センシャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -819,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,6 +1092,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1491,12 +1545,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA220"/>
+  <dimension ref="A1:DA223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="8" topLeftCell="CB1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="F53" sqref="F53"/>
+      <selection pane="topRight" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1513,28 +1567,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="87" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -1923,14 +1977,14 @@
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="86"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="84"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="88"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2317,14 +2371,14 @@
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="86"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="84"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -3039,7 +3093,7 @@
     <row r="20" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="14">
@@ -3061,7 +3115,7 @@
     <row r="21" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="14">
@@ -3083,7 +3137,7 @@
     <row r="22" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
       <c r="B22" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="14">
@@ -3104,7 +3158,7 @@
     </row>
     <row r="23" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="14">
         <v>44529</v>
@@ -3125,7 +3179,7 @@
     <row r="24" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23"/>
       <c r="B24" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="14">
@@ -3147,7 +3201,7 @@
     <row r="25" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="14">
@@ -3169,7 +3223,7 @@
     <row r="26" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20"/>
       <c r="B26" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="14">
@@ -3191,7 +3245,7 @@
     <row r="27" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="14">
@@ -3213,7 +3267,7 @@
     <row r="28" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="34"/>
       <c r="B28" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="14">
@@ -3235,7 +3289,7 @@
     <row r="29" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="34"/>
       <c r="B29" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="14">
@@ -3257,7 +3311,7 @@
     <row r="30" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="38"/>
       <c r="B30" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="14">
@@ -3279,7 +3333,7 @@
     <row r="31" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="14">
@@ -3301,7 +3355,7 @@
     <row r="32" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20"/>
       <c r="B32" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="14">
@@ -3323,7 +3377,7 @@
     <row r="33" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="42"/>
       <c r="B33" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="14">
@@ -3345,7 +3399,7 @@
     <row r="34" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="50"/>
       <c r="B34" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="14">
@@ -3367,7 +3421,7 @@
     <row r="35" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="46"/>
       <c r="B35" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="44"/>
       <c r="D35" s="14">
@@ -3411,7 +3465,7 @@
     <row r="37" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="54"/>
       <c r="B37" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="14">
@@ -3433,7 +3487,7 @@
     <row r="38" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="54"/>
       <c r="B38" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="14">
@@ -3455,7 +3509,7 @@
     <row r="39" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="61"/>
       <c r="B39" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="14">
@@ -3477,7 +3531,7 @@
     <row r="40" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="65"/>
       <c r="B40" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="63"/>
       <c r="D40" s="14">
@@ -3499,7 +3553,7 @@
     <row r="41" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="69"/>
       <c r="B41" s="70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="67"/>
       <c r="D41" s="14">
@@ -3521,7 +3575,7 @@
     <row r="42" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="69"/>
       <c r="B42" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="67"/>
       <c r="D42" s="14">
@@ -3543,7 +3597,7 @@
     <row r="43" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="69"/>
       <c r="B43" s="70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="67"/>
       <c r="D43" s="14">
@@ -3565,7 +3619,7 @@
     <row r="44" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="73"/>
       <c r="B44" s="74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="71"/>
       <c r="D44" s="14">
@@ -3587,7 +3641,7 @@
     <row r="45" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="57"/>
       <c r="B45" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="14">
@@ -3609,7 +3663,7 @@
     <row r="46" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20"/>
       <c r="B46" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="14">
         <v>44542</v>
@@ -3630,7 +3684,7 @@
     <row r="47" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15"/>
       <c r="B47" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="14">
@@ -3671,7 +3725,7 @@
     </row>
     <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="14">
         <v>44550</v>
@@ -3685,7 +3739,7 @@
     </row>
     <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" s="14">
         <v>44555</v>
@@ -3703,7 +3757,7 @@
     </row>
     <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="14">
         <v>44565</v>
@@ -3716,7 +3770,7 @@
     <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="79"/>
       <c r="B52" s="80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="77"/>
       <c r="D52" s="14">
@@ -3738,7 +3792,7 @@
     <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="73"/>
       <c r="B53" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" s="71"/>
       <c r="D53" s="14">
@@ -3752,42 +3806,81 @@
       <c r="H53" s="72"/>
     </row>
     <row r="54" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="27" t="s">
-        <v>33</v>
-      </c>
+      <c r="A54" s="83"/>
+      <c r="B54" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="81"/>
       <c r="D54" s="14">
         <v>44573</v>
       </c>
       <c r="E54" s="14">
+        <v>44573</v>
+      </c>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="82"/>
+    </row>
+    <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="83"/>
+      <c r="B55" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="81"/>
+      <c r="D55" s="14">
+        <v>44574</v>
+      </c>
+      <c r="E55" s="14">
+        <v>44574</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="82"/>
+    </row>
+    <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="83"/>
+      <c r="B56" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="81"/>
+      <c r="D56" s="14">
+        <v>44575</v>
+      </c>
+      <c r="E56" s="14">
+        <v>44575</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="82"/>
+    </row>
+    <row r="57" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="83"/>
+      <c r="B57" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="81"/>
+      <c r="D57" s="14">
         <v>44576</v>
       </c>
-      <c r="F54" s="14">
-        <v>44573</v>
-      </c>
-      <c r="G54" s="75"/>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="14">
+      <c r="E57" s="14">
         <v>44576</v>
       </c>
-      <c r="E55" s="14">
+      <c r="F57" s="14"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="82"/>
+    </row>
+    <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="14">
+        <v>44576</v>
+      </c>
+      <c r="E58" s="14">
         <v>44581</v>
       </c>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -4275,6 +4368,15 @@
     </row>
     <row r="220" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H220" s="12"/>
+    </row>
+    <row r="221" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H221" s="12"/>
+    </row>
+    <row r="222" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H222" s="12"/>
+    </row>
+    <row r="223" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H223" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -4293,7 +4395,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA40 J45:DA220">
+  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA40 J45:DA223">
     <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -4346,19 +4448,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A220</xm:sqref>
+          <xm:sqref>A4:A223</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H220</xm:sqref>
+          <xm:sqref>H4:H223</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C220</xm:sqref>
+          <xm:sqref>C4:C223</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABB849D-CC27-46BA-8ECE-03CFE5BC02E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADD6329-D9BB-44FD-A3C9-C5D6C17ED11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -381,13 +381,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モデルの配置</t>
-    <rPh sb="4" eb="6">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>予測射撃</t>
     <rPh sb="0" eb="4">
       <t>ヨソクシャゲキ</t>
@@ -693,19 +686,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テクスチャ：選択枠を修正</t>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>テクスチャ：スキルの説明を戦車分作成</t>
     <rPh sb="10" eb="12">
       <t>セツメイ</t>
@@ -718,6 +698,48 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テクスチャ：Ui01.pngの選択枠、操作方法を修正</t>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ソウサホウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岩と戦車の当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センシャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岩のモデルの配置</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1093,9 +1115,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,6 +1135,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1550,7 +1572,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="8" topLeftCell="CB1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="E58" sqref="E58"/>
+      <selection pane="topRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3158,7 +3180,7 @@
     </row>
     <row r="23" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="14">
         <v>44529</v>
@@ -3179,7 +3201,7 @@
     <row r="24" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23"/>
       <c r="B24" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="14">
@@ -3201,7 +3223,7 @@
     <row r="25" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="14">
@@ -3245,7 +3267,7 @@
     <row r="27" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="14">
@@ -3267,7 +3289,7 @@
     <row r="28" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="34"/>
       <c r="B28" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="14">
@@ -3289,7 +3311,7 @@
     <row r="29" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="34"/>
       <c r="B29" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="14">
@@ -3311,7 +3333,7 @@
     <row r="30" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="38"/>
       <c r="B30" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="14">
@@ -3333,7 +3355,7 @@
     <row r="31" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="14">
@@ -3355,7 +3377,7 @@
     <row r="32" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20"/>
       <c r="B32" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="14">
@@ -3377,7 +3399,7 @@
     <row r="33" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="42"/>
       <c r="B33" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="14">
@@ -3399,7 +3421,7 @@
     <row r="34" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="50"/>
       <c r="B34" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="14">
@@ -3465,7 +3487,7 @@
     <row r="37" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="54"/>
       <c r="B37" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="14">
@@ -3487,7 +3509,7 @@
     <row r="38" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="54"/>
       <c r="B38" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="14">
@@ -3509,7 +3531,7 @@
     <row r="39" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="61"/>
       <c r="B39" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="14">
@@ -3531,7 +3553,7 @@
     <row r="40" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="65"/>
       <c r="B40" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="63"/>
       <c r="D40" s="14">
@@ -3553,7 +3575,7 @@
     <row r="41" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="69"/>
       <c r="B41" s="70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="67"/>
       <c r="D41" s="14">
@@ -3575,7 +3597,7 @@
     <row r="42" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="69"/>
       <c r="B42" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="67"/>
       <c r="D42" s="14">
@@ -3597,7 +3619,7 @@
     <row r="43" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="69"/>
       <c r="B43" s="70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="67"/>
       <c r="D43" s="14">
@@ -3619,7 +3641,7 @@
     <row r="44" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="73"/>
       <c r="B44" s="74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="71"/>
       <c r="D44" s="14">
@@ -3641,7 +3663,7 @@
     <row r="45" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="57"/>
       <c r="B45" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="14">
@@ -3663,7 +3685,7 @@
     <row r="46" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20"/>
       <c r="B46" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="14">
         <v>44542</v>
@@ -3684,7 +3706,7 @@
     <row r="47" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15"/>
       <c r="B47" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="14">
@@ -3725,140 +3747,154 @@
     </row>
     <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D49" s="14">
-        <v>44550</v>
+        <v>44572</v>
       </c>
       <c r="E49" s="14">
-        <v>44551</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="12"/>
+        <v>44573</v>
+      </c>
+      <c r="F49" s="14">
+        <v>44572</v>
+      </c>
+      <c r="G49" s="14">
+        <v>44573</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="27" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D50" s="14">
-        <v>44555</v>
+        <v>44573</v>
       </c>
       <c r="E50" s="14">
-        <v>41273</v>
+        <v>44573</v>
       </c>
       <c r="F50" s="14">
-        <v>44571</v>
-      </c>
-      <c r="G50" s="76"/>
+        <v>44573</v>
+      </c>
+      <c r="G50" s="14">
+        <v>44573</v>
+      </c>
       <c r="H50" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="58" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D51" s="14">
-        <v>44565</v>
+        <v>44575</v>
       </c>
       <c r="E51" s="14">
-        <v>44592</v>
-      </c>
-      <c r="H51" s="12"/>
+        <v>44575</v>
+      </c>
+      <c r="F51" s="14">
+        <v>44573</v>
+      </c>
+      <c r="G51" s="14">
+        <v>44573</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="79"/>
-      <c r="B52" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="77"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="76"/>
       <c r="D52" s="14">
-        <v>44572</v>
+        <v>44555</v>
       </c>
       <c r="E52" s="14">
-        <v>44573</v>
+        <v>41273</v>
       </c>
       <c r="F52" s="14">
-        <v>44572</v>
-      </c>
-      <c r="G52" s="14">
-        <v>44573</v>
-      </c>
-      <c r="H52" s="78" t="s">
-        <v>4</v>
+        <v>44571</v>
+      </c>
+      <c r="G52" s="84"/>
+      <c r="H52" s="77" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="73"/>
       <c r="B53" s="74" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C53" s="71"/>
       <c r="D53" s="14">
+        <v>44550</v>
+      </c>
+      <c r="E53" s="14">
+        <v>44551</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="72"/>
+    </row>
+    <row r="54" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="82"/>
+      <c r="B54" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="80"/>
+      <c r="D54" s="14">
+        <v>44565</v>
+      </c>
+      <c r="E54" s="14">
+        <v>44592</v>
+      </c>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="81"/>
+    </row>
+    <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="82"/>
+      <c r="B55" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="80"/>
+      <c r="D55" s="14">
         <v>44572</v>
-      </c>
-      <c r="E53" s="14">
-        <v>44574</v>
-      </c>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="72"/>
-    </row>
-    <row r="54" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="83"/>
-      <c r="B54" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="81"/>
-      <c r="D54" s="14">
-        <v>44573</v>
-      </c>
-      <c r="E54" s="14">
-        <v>44573</v>
-      </c>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="82"/>
-    </row>
-    <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="83"/>
-      <c r="B55" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="14">
-        <v>44574</v>
       </c>
       <c r="E55" s="14">
         <v>44574</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="82"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="81"/>
     </row>
     <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="83"/>
-      <c r="B56" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="81"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="80"/>
       <c r="D56" s="14">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="E56" s="14">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="F56" s="14"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="82"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="81"/>
     </row>
     <row r="57" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="83"/>
-      <c r="B57" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="81"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="80"/>
       <c r="D57" s="14">
         <v>44576</v>
       </c>
@@ -3866,12 +3902,12 @@
         <v>44576</v>
       </c>
       <c r="F57" s="14"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="82"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="81"/>
     </row>
     <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D58" s="14">
         <v>44576</v>
@@ -3879,11 +3915,20 @@
       <c r="E58" s="14">
         <v>44581</v>
       </c>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="14">
+        <v>44576</v>
+      </c>
+      <c r="E59" s="14">
+        <v>44581</v>
+      </c>
       <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -4380,8 +4425,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:H54">
-      <sortCondition ref="D1:D3"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:H59">
+      <sortCondition ref="H1:H3"/>
     </sortState>
   </autoFilter>
   <mergeCells count="8">

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADD6329-D9BB-44FD-A3C9-C5D6C17ED11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E40145F-C69D-4411-BE2E-D49A5C2269EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -649,16 +649,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チュートリアルステージの作り込み</t>
-    <rPh sb="12" eb="13">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>補給範囲をパーティクルでわかりやすくする</t>
     <rPh sb="0" eb="4">
       <t>ホキュウハンイ</t>
@@ -718,28 +708,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>岩と戦車の当たり判定</t>
-    <rPh sb="0" eb="1">
-      <t>イワ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センシャ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>岩のモデルの配置</t>
     <rPh sb="0" eb="1">
       <t>イワ</t>
     </rPh>
     <rPh sb="6" eb="8">
       <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チュートリアルのUIを修正(UI04)</t>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1567,12 +1548,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA223"/>
+  <dimension ref="A1:DA222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane xSplit="8" topLeftCell="CB1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="G52" sqref="G52"/>
+      <selection pane="topRight" activeCell="CM59" sqref="CM59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3747,7 +3728,7 @@
     </row>
     <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="14">
         <v>44572</v>
@@ -3767,7 +3748,7 @@
     </row>
     <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="14">
         <v>44573</v>
@@ -3787,7 +3768,7 @@
     </row>
     <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D51" s="14">
         <v>44575</v>
@@ -3808,7 +3789,7 @@
     <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="78"/>
       <c r="B52" s="79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="76"/>
       <c r="D52" s="14">
@@ -3860,7 +3841,7 @@
     <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="82"/>
       <c r="B55" s="83" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C55" s="80"/>
       <c r="D55" s="14">
@@ -3869,14 +3850,20 @@
       <c r="E55" s="14">
         <v>44574</v>
       </c>
-      <c r="F55" s="84"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="81"/>
+      <c r="F55" s="14">
+        <v>44580</v>
+      </c>
+      <c r="G55" s="14">
+        <v>44580</v>
+      </c>
+      <c r="H55" s="81" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="82"/>
       <c r="B56" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="80"/>
       <c r="D56" s="14">
@@ -3892,7 +3879,7 @@
     <row r="57" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="82"/>
       <c r="B57" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="80"/>
       <c r="D57" s="14">
@@ -3920,15 +3907,6 @@
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="14">
-        <v>44576</v>
-      </c>
-      <c r="E59" s="14">
-        <v>44581</v>
-      </c>
       <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -4419,9 +4397,6 @@
     </row>
     <row r="222" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H222" s="12"/>
-    </row>
-    <row r="223" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H223" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
@@ -4440,7 +4415,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA40 J45:DA223">
+  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA40 J45:DA222">
     <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -4493,19 +4468,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A223</xm:sqref>
+          <xm:sqref>A4:A222</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H223</xm:sqref>
+          <xm:sqref>H4:H222</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C223</xm:sqref>
+          <xm:sqref>C4:C222</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E40145F-C69D-4411-BE2E-D49A5C2269EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156403B1-FF31-4830-87AA-9AEA4A5FB720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -1553,7 +1553,7 @@
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane xSplit="8" topLeftCell="CB1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="CM59" sqref="CM59"/>
+      <selection pane="topRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3872,9 +3872,13 @@
       <c r="E56" s="14">
         <v>44574</v>
       </c>
-      <c r="F56" s="14"/>
+      <c r="F56" s="14">
+        <v>44575</v>
+      </c>
       <c r="G56" s="84"/>
-      <c r="H56" s="81"/>
+      <c r="H56" s="81" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="82"/>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156403B1-FF31-4830-87AA-9AEA4A5FB720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB79C789-FE13-4F53-BFD4-66A073301B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -1553,7 +1553,7 @@
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane xSplit="8" topLeftCell="CB1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="F53" sqref="F53"/>
+      <selection pane="topRight" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3892,9 +3892,15 @@
       <c r="E57" s="14">
         <v>44576</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="81"/>
+      <c r="F57" s="14">
+        <v>44582</v>
+      </c>
+      <c r="G57" s="14">
+        <v>44582</v>
+      </c>
+      <c r="H57" s="81" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="27" t="s">

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB79C789-FE13-4F53-BFD4-66A073301B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0CFC8C-DD7A-4505-B040-F252E05F5672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -721,6 +721,46 @@
     <t>チュートリアルのUIを修正(UI04)</t>
     <rPh sb="11" eb="13">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作品概要動画60秒</t>
+    <rPh sb="0" eb="4">
+      <t>サクヒンガイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレゼン動画</t>
+    <rPh sb="4" eb="6">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自己PR動画</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作品データ提出</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイシュツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1550,10 +1590,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
   <dimension ref="A1:DA222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="CB1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="F54" sqref="F54"/>
+      <selection pane="topRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3801,9 +3841,11 @@
       <c r="F52" s="14">
         <v>44571</v>
       </c>
-      <c r="G52" s="84"/>
+      <c r="G52" s="14">
+        <v>44586</v>
+      </c>
       <c r="H52" s="77" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3875,9 +3917,11 @@
       <c r="F56" s="14">
         <v>44575</v>
       </c>
-      <c r="G56" s="84"/>
+      <c r="G56" s="14">
+        <v>44586</v>
+      </c>
       <c r="H56" s="81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -3917,15 +3961,51 @@
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="14">
+        <v>44586</v>
+      </c>
+      <c r="E59" s="14">
+        <v>44587</v>
+      </c>
       <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="14">
+        <v>44588</v>
+      </c>
+      <c r="E60" s="14">
+        <v>44594</v>
+      </c>
       <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="14">
+        <v>44594</v>
+      </c>
+      <c r="E61" s="14">
+        <v>44601</v>
+      </c>
       <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="14">
+        <v>44601</v>
+      </c>
+      <c r="E62" s="14">
+        <v>44603</v>
+      </c>
       <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0CFC8C-DD7A-4505-B040-F252E05F5672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7FCA77-4DDA-4A98-B902-35F903204A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="20925" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -1590,10 +1590,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
   <dimension ref="A1:DA222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
       <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="E63" sqref="E63"/>
+      <selection pane="topRight" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3970,7 +3970,15 @@
       <c r="E59" s="14">
         <v>44587</v>
       </c>
-      <c r="H59" s="12"/>
+      <c r="F59" s="14">
+        <v>44586</v>
+      </c>
+      <c r="G59" s="14">
+        <v>44587</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="27" t="s">
@@ -3981,6 +3989,9 @@
       </c>
       <c r="E60" s="14">
         <v>44594</v>
+      </c>
+      <c r="F60" s="14">
+        <v>44592</v>
       </c>
       <c r="H60" s="12"/>
     </row>

--- a/ガントチャート -.xlsx
+++ b/ガントチャート -.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7FCA77-4DDA-4A98-B902-35F903204A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9DA3B0-FBD7-4C9A-9590-49A8D5BD76C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20925" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0504B38-5E5A-4E28-8C79-FADD92096DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
     <sheet name="設定" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ガントチャート!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ガントチャート!$A$1:$H$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +37,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>出合翔太</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{8A76F525-3D47-4DF4-804F-7DD75F6AF48A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>出合翔太:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>プロジェクト開始日</t>
     <rPh sb="6" eb="8">
@@ -381,13 +417,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>予測射撃</t>
-    <rPh sb="0" eb="4">
-      <t>ヨソクシャゲキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>作業バッファ-&gt;トゥーンシェーダー</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
@@ -629,13 +658,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エネミーとサプライが当たったら、バックする</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プレイヤーとサプライに当たり判定の修正</t>
     <rPh sb="11" eb="12">
       <t>ア</t>
@@ -721,46 +743,6 @@
     <t>チュートリアルのUIを修正(UI04)</t>
     <rPh sb="11" eb="13">
       <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作品概要動画60秒</t>
-    <rPh sb="0" eb="4">
-      <t>サクヒンガイヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プレゼン動画</t>
-    <rPh sb="4" eb="6">
-      <t>ドウガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自己PR動画</t>
-    <rPh sb="0" eb="2">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ドウガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作品データ提出</t>
-    <rPh sb="0" eb="2">
-      <t>サクヒン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>テイシュツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -774,7 +756,7 @@
     <numFmt numFmtId="177" formatCode="aaa"/>
     <numFmt numFmtId="178" formatCode="m"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +779,21 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -904,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1133,9 +1130,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1156,9 +1150,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1587,16 +1578,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-  <dimension ref="A1:DA222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
+  <dimension ref="A1:DA220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="G60" sqref="G60"/>
+      <selection pane="topRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="10.625" style="9" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="53.125" style="27" customWidth="1"/>
@@ -1604,34 +1595,33 @@
     <col min="4" max="7" width="10.625" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.625" style="10" customWidth="1"/>
     <col min="9" max="9" width="2.625" style="7" customWidth="1"/>
-    <col min="10" max="79" width="4.625" style="4" hidden="1" customWidth="1"/>
-    <col min="80" max="105" width="4.625" style="4" customWidth="1"/>
+    <col min="10" max="105" width="4.625" style="4" customWidth="1"/>
     <col min="106" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:105">
+      <c r="A1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="85" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3">
@@ -2019,15 +2009,15 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A2" s="90"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="88"/>
+    <row r="2" spans="1:105">
+      <c r="A2" s="88"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="86"/>
       <c r="J2" s="5">
         <f>J1</f>
         <v>44501</v>
@@ -2413,15 +2403,15 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.4">
-      <c r="A3" s="90"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="88"/>
+    <row r="3" spans="1:105">
+      <c r="A3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="7" t="str">
         <f>IF(DAY(G2)=1,G2,"")</f>
         <v/>
@@ -2811,7 +2801,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="4" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:105" ht="39.950000000000003" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
@@ -2831,7 +2821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:105" ht="39.950000000000003" customHeight="1">
       <c r="B5" s="27" t="s">
         <v>18</v>
       </c>
@@ -2851,7 +2841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:105" ht="39.950000000000003" customHeight="1">
       <c r="B6" s="27" t="s">
         <v>19</v>
       </c>
@@ -2871,7 +2861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:105" ht="39.950000000000003" customHeight="1">
       <c r="B7" s="27" t="s">
         <v>20</v>
       </c>
@@ -2891,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:105" ht="39.950000000000003" customHeight="1">
       <c r="B8" s="27" t="s">
         <v>21</v>
       </c>
@@ -2911,7 +2901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:105" ht="39.950000000000003" customHeight="1">
       <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:105" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="27" t="s">
         <v>29</v>
@@ -2953,7 +2943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:105" ht="39.950000000000003" customHeight="1">
       <c r="B11" s="27" t="s">
         <v>23</v>
       </c>
@@ -2973,47 +2963,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:105" ht="39.950000000000003" customHeight="1">
       <c r="B12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="14">
+        <v>44523</v>
+      </c>
+      <c r="E12" s="14">
+        <v>44528</v>
+      </c>
+      <c r="F12" s="14">
+        <v>44516</v>
+      </c>
+      <c r="G12" s="14">
+        <v>44517</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:105" ht="39.950000000000003" customHeight="1">
+      <c r="B13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <v>44516</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E13" s="14">
         <v>44518</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F13" s="14">
         <v>44517</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G13" s="14">
         <v>44518</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="14">
-        <v>44519</v>
-      </c>
-      <c r="E13" s="14">
-        <v>44521</v>
-      </c>
-      <c r="F13" s="14">
-        <v>44519</v>
-      </c>
-      <c r="G13" s="14">
-        <v>44521</v>
-      </c>
       <c r="H13" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:105" ht="39.950000000000003" customHeight="1">
       <c r="B14" s="27" t="s">
         <v>27</v>
       </c>
@@ -3033,47 +3023,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:105" ht="39.950000000000003" customHeight="1">
       <c r="B15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="14">
+        <v>44519</v>
+      </c>
+      <c r="E15" s="14">
+        <v>44521</v>
+      </c>
+      <c r="F15" s="14">
+        <v>44519</v>
+      </c>
+      <c r="G15" s="14">
+        <v>44521</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:105" ht="39.950000000000003" customHeight="1">
+      <c r="B16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <v>44522</v>
-      </c>
-      <c r="E15" s="14">
-        <v>44528</v>
-      </c>
-      <c r="F15" s="14">
-        <v>44520</v>
-      </c>
-      <c r="G15" s="14">
-        <v>44522</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:105" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="14">
-        <v>44523</v>
       </c>
       <c r="E16" s="14">
         <v>44528</v>
       </c>
       <c r="F16" s="14">
-        <v>44516</v>
+        <v>44520</v>
       </c>
       <c r="G16" s="14">
-        <v>44517</v>
+        <v>44522</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="B17" s="27" t="s">
         <v>28</v>
       </c>
@@ -3093,7 +3083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="B18" s="27" t="s">
         <v>26</v>
       </c>
@@ -3113,7 +3103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="B19" s="27" t="s">
         <v>31</v>
       </c>
@@ -3133,7 +3123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="27" t="s">
         <v>33</v>
@@ -3155,7 +3145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="20"/>
       <c r="B21" s="27" t="s">
         <v>37</v>
@@ -3177,7 +3167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="27" t="s">
         <v>34</v>
@@ -3199,9 +3189,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="B23" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="14">
         <v>44529</v>
@@ -3219,10 +3209,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A24" s="23"/>
       <c r="B24" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="14">
@@ -3241,10 +3231,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="14">
@@ -3263,7 +3253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A26" s="20"/>
       <c r="B26" s="27" t="s">
         <v>36</v>
@@ -3285,10 +3275,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="14">
@@ -3307,10 +3297,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A28" s="34"/>
       <c r="B28" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="14">
@@ -3329,10 +3319,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A29" s="34"/>
       <c r="B29" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="14">
@@ -3351,10 +3341,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A30" s="38"/>
       <c r="B30" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="14">
@@ -3373,10 +3363,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="14">
@@ -3395,10 +3385,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A32" s="20"/>
       <c r="B32" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="14">
@@ -3417,10 +3407,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A33" s="42"/>
       <c r="B33" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="14">
@@ -3439,10 +3429,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A34" s="50"/>
       <c r="B34" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="14">
@@ -3461,314 +3451,314 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A35" s="46"/>
       <c r="B35" s="47" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C35" s="44"/>
       <c r="D35" s="14">
-        <v>44551</v>
+        <v>44534</v>
       </c>
       <c r="E35" s="14">
-        <v>44555</v>
+        <v>44535</v>
       </c>
       <c r="F35" s="14">
-        <v>44571</v>
+        <v>44537</v>
       </c>
       <c r="G35" s="14">
-        <v>44571</v>
+        <v>44537</v>
       </c>
       <c r="H35" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A36" s="42"/>
       <c r="B36" s="43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="14">
-        <v>44560</v>
+        <v>44537</v>
       </c>
       <c r="E36" s="14">
-        <v>44561</v>
+        <v>44537</v>
       </c>
       <c r="F36" s="14">
-        <v>44571</v>
+        <v>44537</v>
       </c>
       <c r="G36" s="14">
-        <v>44571</v>
+        <v>44537</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A37" s="54"/>
       <c r="B37" s="58" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="14">
-        <v>44578</v>
+        <v>44537</v>
       </c>
       <c r="E37" s="14">
-        <v>44581</v>
+        <v>44542</v>
       </c>
       <c r="F37" s="14">
-        <v>44556</v>
+        <v>44538</v>
       </c>
       <c r="G37" s="14">
-        <v>44557</v>
+        <v>44538</v>
       </c>
       <c r="H37" s="53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A38" s="54"/>
       <c r="B38" s="58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="14">
-        <v>44550</v>
+        <v>44538</v>
       </c>
       <c r="E38" s="14">
-        <v>44550</v>
+        <v>44538</v>
       </c>
       <c r="F38" s="14">
-        <v>44550</v>
+        <v>44538</v>
       </c>
       <c r="G38" s="14">
-        <v>44551</v>
+        <v>44538</v>
       </c>
       <c r="H38" s="53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A39" s="61"/>
       <c r="B39" s="62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="14">
-        <v>44550</v>
+        <v>44542</v>
       </c>
       <c r="E39" s="14">
-        <v>44550</v>
+        <v>44545</v>
       </c>
       <c r="F39" s="14">
-        <v>44550</v>
+        <v>44538</v>
       </c>
       <c r="G39" s="14">
-        <v>44550</v>
+        <v>44538</v>
       </c>
       <c r="H39" s="60" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A40" s="65"/>
       <c r="B40" s="66" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C40" s="63"/>
       <c r="D40" s="14">
-        <v>44550</v>
+        <v>44538</v>
       </c>
       <c r="E40" s="14">
-        <v>44550</v>
+        <v>44544</v>
       </c>
       <c r="F40" s="14">
-        <v>44550</v>
+        <v>44538</v>
       </c>
       <c r="G40" s="14">
-        <v>44550</v>
+        <v>44544</v>
       </c>
       <c r="H40" s="64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A41" s="69"/>
       <c r="B41" s="70" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C41" s="67"/>
       <c r="D41" s="14">
-        <v>44572</v>
+        <v>44545</v>
       </c>
       <c r="E41" s="14">
-        <v>44578</v>
+        <v>44546</v>
       </c>
       <c r="F41" s="14">
-        <v>44550</v>
+        <v>44545</v>
       </c>
       <c r="G41" s="14">
-        <v>44550</v>
+        <v>44546</v>
       </c>
       <c r="H41" s="68" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A42" s="69"/>
       <c r="B42" s="70" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C42" s="67"/>
       <c r="D42" s="14">
-        <v>44545</v>
+        <v>44550</v>
       </c>
       <c r="E42" s="14">
-        <v>44546</v>
+        <v>44550</v>
       </c>
       <c r="F42" s="14">
-        <v>44545</v>
+        <v>44550</v>
       </c>
       <c r="G42" s="14">
-        <v>44546</v>
+        <v>44550</v>
       </c>
       <c r="H42" s="68" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A43" s="69"/>
       <c r="B43" s="70" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C43" s="67"/>
       <c r="D43" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="E43" s="14">
-        <v>44544</v>
+        <v>44550</v>
       </c>
       <c r="F43" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="G43" s="14">
-        <v>44544</v>
+        <v>44550</v>
       </c>
       <c r="H43" s="68" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A44" s="73"/>
       <c r="B44" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="71"/>
       <c r="D44" s="14">
-        <v>44537</v>
+        <v>44572</v>
       </c>
       <c r="E44" s="14">
-        <v>44542</v>
+        <v>44578</v>
       </c>
       <c r="F44" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="G44" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="H44" s="72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A45" s="57"/>
       <c r="B45" s="58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="E45" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="F45" s="14">
-        <v>44538</v>
+        <v>44550</v>
       </c>
       <c r="G45" s="14">
-        <v>44538</v>
+        <v>44551</v>
       </c>
       <c r="H45" s="56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A46" s="20"/>
       <c r="B46" s="27" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D46" s="14">
-        <v>44542</v>
+        <v>44578</v>
       </c>
       <c r="E46" s="14">
-        <v>44545</v>
+        <v>44581</v>
       </c>
       <c r="F46" s="14">
-        <v>44538</v>
+        <v>44556</v>
       </c>
       <c r="G46" s="14">
-        <v>44538</v>
+        <v>44557</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A47" s="15"/>
       <c r="B47" s="27" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="14">
-        <v>44534</v>
+        <v>44551</v>
       </c>
       <c r="E47" s="14">
-        <v>44535</v>
+        <v>44555</v>
       </c>
       <c r="F47" s="14">
-        <v>44537</v>
+        <v>44571</v>
       </c>
       <c r="G47" s="14">
-        <v>44537</v>
+        <v>44571</v>
       </c>
       <c r="H47" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="B48" s="27" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D48" s="14">
-        <v>44537</v>
+        <v>44560</v>
       </c>
       <c r="E48" s="14">
-        <v>44537</v>
+        <v>44561</v>
       </c>
       <c r="F48" s="14">
-        <v>44537</v>
+        <v>44571</v>
       </c>
       <c r="G48" s="14">
-        <v>44537</v>
+        <v>44571</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="B49" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D49" s="14">
         <v>44572</v>
@@ -3786,9 +3776,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="B50" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D50" s="14">
         <v>44573</v>
@@ -3806,9 +3796,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="B51" s="58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D51" s="14">
         <v>44575</v>
@@ -3826,683 +3816,623 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="78"/>
-      <c r="B52" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="76"/>
+    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A52" s="77"/>
+      <c r="B52" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="75"/>
       <c r="D52" s="14">
+        <v>44572</v>
+      </c>
+      <c r="E52" s="14">
+        <v>44574</v>
+      </c>
+      <c r="F52" s="14">
+        <v>44580</v>
+      </c>
+      <c r="G52" s="14">
+        <v>44580</v>
+      </c>
+      <c r="H52" s="76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A53" s="81"/>
+      <c r="B53" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="79"/>
+      <c r="D53" s="14">
+        <v>44576</v>
+      </c>
+      <c r="E53" s="14">
+        <v>44576</v>
+      </c>
+      <c r="F53" s="14">
+        <v>44582</v>
+      </c>
+      <c r="G53" s="14">
+        <v>44582</v>
+      </c>
+      <c r="H53" s="80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A54" s="81"/>
+      <c r="B54" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="79"/>
+      <c r="D54" s="14">
         <v>44555</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E54" s="14">
         <v>41273</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F54" s="14">
         <v>44571</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G54" s="14">
         <v>44586</v>
       </c>
-      <c r="H52" s="77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="73"/>
-      <c r="B53" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="14">
-        <v>44550</v>
-      </c>
-      <c r="E53" s="14">
-        <v>44551</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="72"/>
-    </row>
-    <row r="54" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="82"/>
-      <c r="B54" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="80"/>
-      <c r="D54" s="14">
-        <v>44565</v>
-      </c>
-      <c r="E54" s="14">
-        <v>44592</v>
-      </c>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="81"/>
-    </row>
-    <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="82"/>
-      <c r="B55" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="80"/>
+      <c r="H54" s="80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A55" s="81"/>
+      <c r="B55" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="79"/>
       <c r="D55" s="14">
-        <v>44572</v>
+        <v>44574</v>
       </c>
       <c r="E55" s="14">
         <v>44574</v>
       </c>
       <c r="F55" s="14">
-        <v>44580</v>
+        <v>44575</v>
       </c>
       <c r="G55" s="14">
-        <v>44580</v>
-      </c>
-      <c r="H55" s="81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="82"/>
-      <c r="B56" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="80"/>
+        <v>44586</v>
+      </c>
+      <c r="H55" s="80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A56" s="81"/>
+      <c r="B56" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="79"/>
       <c r="D56" s="14">
-        <v>44574</v>
+        <v>44565</v>
       </c>
       <c r="E56" s="14">
-        <v>44574</v>
+        <v>44592</v>
       </c>
       <c r="F56" s="14">
-        <v>44575</v>
+        <v>44565</v>
       </c>
       <c r="G56" s="14">
-        <v>44586</v>
-      </c>
-      <c r="H56" s="81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="82"/>
-      <c r="B57" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="14">
-        <v>44576</v>
-      </c>
-      <c r="E57" s="14">
-        <v>44576</v>
-      </c>
-      <c r="F57" s="14">
-        <v>44582</v>
-      </c>
-      <c r="G57" s="14">
-        <v>44582</v>
-      </c>
-      <c r="H57" s="81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="14">
-        <v>44576</v>
-      </c>
-      <c r="E58" s="14">
-        <v>44581</v>
-      </c>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
+        <v>44592</v>
+      </c>
+      <c r="H56" s="80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="14">
-        <v>44586</v>
-      </c>
-      <c r="E59" s="14">
-        <v>44587</v>
-      </c>
-      <c r="F59" s="14">
-        <v>44586</v>
-      </c>
-      <c r="G59" s="14">
-        <v>44587</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="14">
-        <v>44588</v>
-      </c>
-      <c r="E60" s="14">
-        <v>44594</v>
-      </c>
-      <c r="F60" s="14">
-        <v>44592</v>
-      </c>
+    <row r="59" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="14">
-        <v>44594</v>
-      </c>
-      <c r="E61" s="14">
-        <v>44601</v>
-      </c>
+    <row r="61" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="14">
-        <v>44601</v>
-      </c>
-      <c r="E62" s="14">
-        <v>44603</v>
-      </c>
+    <row r="62" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H114" s="12"/>
     </row>
-    <row r="115" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H115" s="12"/>
     </row>
-    <row r="116" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H117" s="12"/>
     </row>
-    <row r="118" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H119" s="12"/>
     </row>
-    <row r="120" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H120" s="12"/>
     </row>
-    <row r="121" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H121" s="12"/>
     </row>
-    <row r="122" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H122" s="12"/>
     </row>
-    <row r="123" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H123" s="12"/>
     </row>
-    <row r="124" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H124" s="12"/>
     </row>
-    <row r="125" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H125" s="12"/>
     </row>
-    <row r="126" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H126" s="12"/>
     </row>
-    <row r="127" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H127" s="12"/>
     </row>
-    <row r="128" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H128" s="12"/>
     </row>
-    <row r="129" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H129" s="12"/>
     </row>
-    <row r="130" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H130" s="12"/>
     </row>
-    <row r="131" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H131" s="12"/>
     </row>
-    <row r="132" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H132" s="12"/>
     </row>
-    <row r="133" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H133" s="12"/>
     </row>
-    <row r="134" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H134" s="12"/>
     </row>
-    <row r="135" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H135" s="12"/>
     </row>
-    <row r="136" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H136" s="12"/>
     </row>
-    <row r="137" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H137" s="12"/>
     </row>
-    <row r="138" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H138" s="12"/>
     </row>
-    <row r="139" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H139" s="12"/>
     </row>
-    <row r="140" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H140" s="12"/>
     </row>
-    <row r="141" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H141" s="12"/>
     </row>
-    <row r="142" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H142" s="12"/>
     </row>
-    <row r="143" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H143" s="12"/>
     </row>
-    <row r="144" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H144" s="12"/>
     </row>
-    <row r="145" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H145" s="12"/>
     </row>
-    <row r="146" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H146" s="12"/>
     </row>
-    <row r="147" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H147" s="12"/>
     </row>
-    <row r="148" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H148" s="12"/>
     </row>
-    <row r="149" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H149" s="12"/>
     </row>
-    <row r="150" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H150" s="12"/>
     </row>
-    <row r="151" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H151" s="12"/>
     </row>
-    <row r="152" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H152" s="12"/>
     </row>
-    <row r="153" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H153" s="12"/>
     </row>
-    <row r="154" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H154" s="12"/>
     </row>
-    <row r="155" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H155" s="12"/>
     </row>
-    <row r="156" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H156" s="12"/>
     </row>
-    <row r="157" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H157" s="12"/>
     </row>
-    <row r="158" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H158" s="12"/>
     </row>
-    <row r="159" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H159" s="12"/>
     </row>
-    <row r="160" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H160" s="12"/>
     </row>
-    <row r="161" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H161" s="12"/>
     </row>
-    <row r="162" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H162" s="12"/>
     </row>
-    <row r="163" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H163" s="12"/>
     </row>
-    <row r="164" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H164" s="12"/>
     </row>
-    <row r="165" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H165" s="12"/>
     </row>
-    <row r="166" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H166" s="12"/>
     </row>
-    <row r="167" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H167" s="12"/>
     </row>
-    <row r="168" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H168" s="12"/>
     </row>
-    <row r="169" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H169" s="12"/>
     </row>
-    <row r="170" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H170" s="12"/>
     </row>
-    <row r="171" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H171" s="12"/>
     </row>
-    <row r="172" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H172" s="12"/>
     </row>
-    <row r="173" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H173" s="12"/>
     </row>
-    <row r="174" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H174" s="12"/>
     </row>
-    <row r="175" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H175" s="12"/>
     </row>
-    <row r="176" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H176" s="12"/>
     </row>
-    <row r="177" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H177" s="12"/>
     </row>
-    <row r="178" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H178" s="12"/>
     </row>
-    <row r="179" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H179" s="12"/>
     </row>
-    <row r="180" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H180" s="12"/>
     </row>
-    <row r="181" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H181" s="12"/>
     </row>
-    <row r="182" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H182" s="12"/>
     </row>
-    <row r="183" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H183" s="12"/>
     </row>
-    <row r="184" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H184" s="12"/>
     </row>
-    <row r="185" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H185" s="12"/>
     </row>
-    <row r="186" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H186" s="12"/>
     </row>
-    <row r="187" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H187" s="12"/>
     </row>
-    <row r="188" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H188" s="12"/>
     </row>
-    <row r="189" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H189" s="12"/>
     </row>
-    <row r="190" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H190" s="12"/>
     </row>
-    <row r="191" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H191" s="12"/>
     </row>
-    <row r="192" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H192" s="12"/>
     </row>
-    <row r="193" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H193" s="12"/>
     </row>
-    <row r="194" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H194" s="12"/>
     </row>
-    <row r="195" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H195" s="12"/>
     </row>
-    <row r="196" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H196" s="12"/>
     </row>
-    <row r="197" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H197" s="12"/>
     </row>
-    <row r="198" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H198" s="12"/>
     </row>
-    <row r="199" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H199" s="12"/>
     </row>
-    <row r="200" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H200" s="12"/>
     </row>
-    <row r="201" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H201" s="12"/>
     </row>
-    <row r="202" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H202" s="12"/>
     </row>
-    <row r="203" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H203" s="12"/>
     </row>
-    <row r="204" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H204" s="12"/>
     </row>
-    <row r="205" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H205" s="12"/>
     </row>
-    <row r="206" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H206" s="12"/>
     </row>
-    <row r="207" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H207" s="12"/>
     </row>
-    <row r="208" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H208" s="12"/>
     </row>
-    <row r="209" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H209" s="12"/>
     </row>
-    <row r="210" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H210" s="12"/>
     </row>
-    <row r="211" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H211" s="12"/>
     </row>
-    <row r="212" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H212" s="12"/>
     </row>
-    <row r="213" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H213" s="12"/>
     </row>
-    <row r="214" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H214" s="12"/>
     </row>
-    <row r="215" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H215" s="12"/>
     </row>
-    <row r="216" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H216" s="12"/>
     </row>
-    <row r="217" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H217" s="12"/>
     </row>
-    <row r="218" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H218" s="12"/>
     </row>
-    <row r="219" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H219" s="12"/>
     </row>
-    <row r="220" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="8:8" ht="39.950000000000003" customHeight="1">
       <c r="H220" s="12"/>
     </row>
-    <row r="221" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H221" s="12"/>
-    </row>
-    <row r="222" spans="8:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H222" s="12"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H3" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:H59">
-      <sortCondition ref="H1:H3"/>
+  <autoFilter ref="A1:H56" xr:uid="{59FE9365-BB8A-4DD9-AFE7-3026076520CF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H56">
+      <sortCondition ref="G1:G3"/>
     </sortState>
   </autoFilter>
   <mergeCells count="8">
@@ -4516,7 +4446,7 @@
     <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA40 J45:DA222">
+  <conditionalFormatting sqref="J4:DA27 J32:DA33 J35:DA40 J45:DA220">
     <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND(J$2&gt;=$F4,J$2&lt;=$G4)</formula>
     </cfRule>
@@ -4562,6 +4492,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -4569,19 +4500,19 @@
           <x14:formula1>
             <xm:f>設定!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A222</xm:sqref>
+          <xm:sqref>A4:A220</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCC9F05-D360-48A4-ABA2-AFBD69B032CF}">
           <x14:formula1>
             <xm:f>設定!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H222</xm:sqref>
+          <xm:sqref>H4:H220</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E5A7A8-C2ED-4797-8357-FD07296D0844}">
           <x14:formula1>
             <xm:f>設定!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C222</xm:sqref>
+          <xm:sqref>C4:C220</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4597,7 +4528,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -4606,7 +4537,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4620,7 +4551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>44501</v>
       </c>
@@ -4631,7 +4562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4639,7 +4570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4647,7 +4578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
